--- a/Equipe208.xlsx
+++ b/Equipe208.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23517"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39db\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57A04019-99B7-45E1-8DC1-9A13C9AA4B62}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC67B9BE-1B1D-4C11-8DDD-CD1B6705660A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -499,6 +499,9 @@
     <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou coverage. Les fichiers package-lock.json et package.json ne se retrouvent que les dossiers client et server)</t>
   </si>
   <si>
+    <t>package-lock.json dans le root et testing-images dans server</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
@@ -517,7 +520,7 @@
     <t>Outil-Ligne</t>
   </si>
   <si>
-    <t>Si on double clique en bougeant un peu la souris, on enregistre 2 cliques. Le preview ne montre pas le même trait que le résultat</t>
+    <t>Le preview ne montre pas le même trait que le résultat</t>
   </si>
   <si>
     <t>Point d'entrée dans l'application</t>
@@ -740,7 +743,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -850,6 +853,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2962,7 +2973,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3347,9 +3358,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3716,6 +3724,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,33 +3747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3785,9 +3771,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3804,6 +3802,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3857,7 +3870,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -4721,18 +4733,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15"/>
     <row r="2" spans="1:11" ht="15">
-      <c r="C2" s="302" t="s">
+      <c r="C2" s="304" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="302"/>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="304"/>
+      <c r="E2" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="303"/>
-      <c r="G2" s="304" t="s">
+      <c r="F2" s="305"/>
+      <c r="G2" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="304"/>
+      <c r="H2" s="306"/>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="2"/>
@@ -5013,7 +5025,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="305" t="s">
+      <c r="G2" s="307" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5026,7 +5038,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="305"/>
+      <c r="G3" s="307"/>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="58" t="s">
@@ -5348,10 +5360,10 @@
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="H27" s="306" t="s">
+      <c r="H27" s="308" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="306"/>
+      <c r="I27" s="308"/>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="52" t="s">
@@ -5706,7 +5718,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="305" t="s">
+      <c r="G2" s="307" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5719,7 +5731,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="305"/>
+      <c r="G3" s="307"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -6093,10 +6105,10 @@
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
       <c r="F31" s="85"/>
-      <c r="H31" s="306" t="s">
+      <c r="H31" s="308" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="306"/>
+      <c r="I31" s="308"/>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="52" t="s">
@@ -6433,17 +6445,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="206"/>
-      <c r="B3" s="253" t="s">
+      <c r="A3" s="205"/>
+      <c r="B3" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="252" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="253" t="s">
+      <c r="D3" s="252" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="254" t="s">
+      <c r="E3" s="253" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6454,88 +6466,88 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="256">
+      <c r="A4" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="255">
         <f>(Fonctionnalités!E20)</f>
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="C4" s="257">
+        <v>0.89</v>
+      </c>
+      <c r="C4" s="256">
         <f>'Assurance Qualité'!B60</f>
         <v>0.72250000000000003</v>
       </c>
-      <c r="D4" s="257">
+      <c r="D4" s="256">
         <f>AVERAGE(B4:C4) - 0.1*E4</f>
-        <v>0.79425000000000001</v>
-      </c>
-      <c r="F4" s="268">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="F4" s="267">
         <v>15</v>
       </c>
-      <c r="G4" s="267">
+      <c r="G4" s="266">
         <f>D4*F4</f>
-        <v>11.91375</v>
+        <v>12.09375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="259">
+      <c r="A5" s="257" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="258">
         <f>(Fonctionnalités!E38)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="260">
+        <v>0.94919999999999982</v>
+      </c>
+      <c r="C5" s="259">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="260">
+        <v>0.74</v>
+      </c>
+      <c r="D5" s="259">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="268">
+        <v>0.84459999999999991</v>
+      </c>
+      <c r="F5" s="267">
         <v>25</v>
       </c>
-      <c r="G5" s="267">
+      <c r="G5" s="266">
         <f t="shared" ref="G5:G7" si="0">D5*F5</f>
-        <v>0</v>
+        <v>21.114999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="262">
+      <c r="B6" s="261">
         <f>(Fonctionnalités!E59)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="263">
+      <c r="C6" s="262">
         <f>'Assurance Qualité'!F60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="263">
+      <c r="D6" s="262">
         <f>AVERAGE(B6:C6) - 0.1*E6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="268">
+      <c r="F6" s="267">
         <v>30</v>
       </c>
-      <c r="G6" s="267">
+      <c r="G6" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="263" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="269"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="268"/>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="267">
+      <c r="G7" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6549,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6563,34 +6575,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="309" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="312" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="145"/>
@@ -6604,31 +6616,31 @@
       <c r="I4" s="146"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="325" t="s">
+      <c r="A5" s="322" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="327" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="328" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="328"/>
-      <c r="F5" s="329" t="s">
+      <c r="B5" s="324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="324"/>
+      <c r="D5" s="325" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="325"/>
+      <c r="F5" s="326" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="330"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="322" t="s">
+      <c r="G5" s="327"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="315" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="323"/>
-      <c r="L5" s="323"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="326"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="147" t="s">
         <v>48</v>
       </c>
@@ -6644,11 +6656,11 @@
       <c r="F6" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="193" t="s">
+      <c r="G6" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="152" t="s">
         <v>0</v>
       </c>
@@ -6661,22 +6673,22 @@
       <c r="M6" s="152"/>
     </row>
     <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="307" t="s">
+      <c r="A7" s="317" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="309"/>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="187" t="s">
+      <c r="B7" s="319"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="187"/>
+      <c r="I7" s="186"/>
     </row>
     <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="193" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="153">
@@ -6685,7 +6697,10 @@
       <c r="C8" s="154">
         <v>3</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="155">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E8" s="154">
         <v>3</v>
       </c>
@@ -6693,11 +6708,11 @@
       <c r="G8" s="154">
         <v>3</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="193" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="157">
@@ -6706,7 +6721,10 @@
       <c r="C9" s="161">
         <v>2</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="159">
+        <f>1.25/2</f>
+        <v>0.625</v>
+      </c>
       <c r="E9" s="161">
         <v>2</v>
       </c>
@@ -6714,14 +6732,14 @@
       <c r="G9" s="161">
         <v>2</v>
       </c>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
       <c r="J9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="270" t="s">
+      <c r="A10" s="269" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="157">
@@ -6730,7 +6748,10 @@
       <c r="C10" s="161">
         <v>3</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="159">
+        <f>0.25/3</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E10" s="161">
         <v>3</v>
       </c>
@@ -6738,14 +6759,14 @@
       <c r="G10" s="161">
         <v>3</v>
       </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
       <c r="J10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="194" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="157">
@@ -6754,7 +6775,9 @@
       <c r="C11" s="161">
         <v>2</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="159">
+        <v>0</v>
+      </c>
       <c r="E11" s="161">
         <v>2</v>
       </c>
@@ -6762,11 +6785,11 @@
       <c r="G11" s="161">
         <v>2</v>
       </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
     </row>
     <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="195" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="157">
@@ -6775,7 +6798,9 @@
       <c r="C12" s="161">
         <v>4</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="159">
+        <v>1</v>
+      </c>
       <c r="E12" s="161">
         <v>4</v>
       </c>
@@ -6783,17 +6808,17 @@
       <c r="G12" s="161">
         <v>4</v>
       </c>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
       <c r="J12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="197" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="178">
+      <c r="B13" s="177">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
         <v>7.5</v>
       </c>
@@ -6801,9 +6826,9 @@
         <f>SUM(C8:C12)</f>
         <v>14</v>
       </c>
-      <c r="D13" s="179">
+      <c r="D13" s="178">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13" s="164">
         <f>SUM(E8:E12)</f>
@@ -6813,154 +6838,168 @@
         <f>SUMPRODUCT(F8:F12,G8:G12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="197">
+      <c r="G13" s="196">
         <f>SUM(G8:G12)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="317" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="324"/>
-      <c r="C14" s="324"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="187" t="s">
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="319"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="187"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:13" ht="409.6">
-      <c r="A15" s="270" t="s">
+      <c r="A15" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="294">
-        <v>0</v>
-      </c>
-      <c r="C15" s="295">
+      <c r="B15" s="293">
+        <v>0</v>
+      </c>
+      <c r="C15" s="294">
         <v>2</v>
       </c>
-      <c r="D15" s="298"/>
-      <c r="E15" s="295">
+      <c r="D15" s="297">
+        <f>0.25/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="294">
         <v>2</v>
       </c>
       <c r="F15" s="166"/>
-      <c r="G15" s="295">
+      <c r="G15" s="294">
         <v>2</v>
       </c>
-      <c r="H15" s="189"/>
-      <c r="I15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="187"/>
       <c r="J15" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="296">
+      <c r="B16" s="295">
         <v>0.5</v>
       </c>
-      <c r="C16" s="285">
+      <c r="C16" s="284">
         <v>3</v>
       </c>
-      <c r="D16" s="271"/>
-      <c r="E16" s="285">
+      <c r="D16" s="270">
+        <f>1.25/3</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E16" s="284">
         <v>3</v>
       </c>
-      <c r="F16" s="272"/>
-      <c r="G16" s="285">
+      <c r="F16" s="271"/>
+      <c r="G16" s="284">
         <v>3</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="187"/>
       <c r="J16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45">
-      <c r="A17" s="278" t="s">
+      <c r="A17" s="277" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="284">
-        <v>1</v>
-      </c>
-      <c r="C17" s="285">
+      <c r="B17" s="283">
+        <v>1</v>
+      </c>
+      <c r="C17" s="284">
         <v>3</v>
       </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="285">
+      <c r="D17" s="273">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="284">
         <v>3</v>
       </c>
       <c r="F17" s="169"/>
-      <c r="G17" s="285">
+      <c r="G17" s="284">
         <v>3</v>
       </c>
-      <c r="H17" s="189"/>
-      <c r="I17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="187"/>
     </row>
     <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="278" t="s">
+      <c r="A18" s="277" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="284">
-        <v>1</v>
-      </c>
-      <c r="C18" s="285">
+      <c r="B18" s="283">
+        <v>1</v>
+      </c>
+      <c r="C18" s="284">
         <v>3</v>
       </c>
-      <c r="D18" s="274"/>
-      <c r="E18" s="285">
+      <c r="D18" s="273">
+        <v>1</v>
+      </c>
+      <c r="E18" s="284">
         <v>3</v>
       </c>
       <c r="F18" s="169"/>
-      <c r="G18" s="285">
+      <c r="G18" s="284">
         <v>3</v>
       </c>
-      <c r="H18" s="189"/>
-      <c r="I18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="187"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="279" t="s">
+      <c r="A19" s="278" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="297">
-        <v>1</v>
-      </c>
-      <c r="C19" s="285">
+      <c r="B19" s="296">
+        <v>1</v>
+      </c>
+      <c r="C19" s="284">
         <v>2</v>
       </c>
-      <c r="D19" s="299"/>
-      <c r="E19" s="285">
+      <c r="D19" s="298">
+        <f>1.75/2</f>
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="284">
         <v>2</v>
       </c>
       <c r="F19" s="169"/>
-      <c r="G19" s="285">
+      <c r="G19" s="284">
         <v>2</v>
       </c>
-      <c r="H19" s="189"/>
-      <c r="I19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="187"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="289" t="s">
+      <c r="A20" s="288" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="292">
+      <c r="B20" s="291">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
         <v>9.5</v>
       </c>
-      <c r="C20" s="288">
+      <c r="C20" s="287">
         <f>SUM(C15:C19)</f>
         <v>13</v>
       </c>
-      <c r="D20" s="293">
+      <c r="D20" s="292">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="E20" s="162">
         <f>SUM(E15:E19)</f>
@@ -6970,30 +7009,30 @@
         <f>SUMPRODUCT(F15:F19,G15:G19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="197">
+      <c r="G20" s="196">
         <f>SUM(G15:G19)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="189"/>
-      <c r="I20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="187"/>
     </row>
     <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="307" t="s">
+      <c r="A21" s="317" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="315"/>
-      <c r="C21" s="315"/>
-      <c r="D21" s="309"/>
-      <c r="E21" s="309"/>
-      <c r="F21" s="309"/>
-      <c r="G21" s="310"/>
-      <c r="H21" s="187" t="s">
+      <c r="B21" s="321"/>
+      <c r="C21" s="321"/>
+      <c r="D21" s="319"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="319"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="187"/>
+      <c r="I21" s="186"/>
     </row>
     <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="195" t="s">
+      <c r="A22" s="194" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="157">
@@ -7002,7 +7041,9 @@
       <c r="C22" s="158">
         <v>2</v>
       </c>
-      <c r="D22" s="159"/>
+      <c r="D22" s="159">
+        <v>1</v>
+      </c>
       <c r="E22" s="158">
         <v>2</v>
       </c>
@@ -7010,11 +7051,11 @@
       <c r="G22" s="158">
         <v>2</v>
       </c>
-      <c r="H22" s="189"/>
-      <c r="I22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="187"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="195" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="157">
@@ -7023,7 +7064,9 @@
       <c r="C23" s="161">
         <v>1</v>
       </c>
-      <c r="D23" s="159"/>
+      <c r="D23" s="159">
+        <v>1</v>
+      </c>
       <c r="E23" s="161">
         <v>1</v>
       </c>
@@ -7031,11 +7074,11 @@
       <c r="G23" s="161">
         <v>1</v>
       </c>
-      <c r="H23" s="189"/>
-      <c r="I23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="187"/>
     </row>
     <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="195" t="s">
         <v>105</v>
       </c>
       <c r="B24" s="157">
@@ -7044,7 +7087,9 @@
       <c r="C24" s="161">
         <v>1</v>
       </c>
-      <c r="D24" s="159"/>
+      <c r="D24" s="159">
+        <v>0</v>
+      </c>
       <c r="E24" s="161">
         <v>1</v>
       </c>
@@ -7052,17 +7097,17 @@
       <c r="G24" s="161">
         <v>1</v>
       </c>
-      <c r="H24" s="189"/>
-      <c r="I24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="187"/>
       <c r="J24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="198" t="s">
+      <c r="A25" s="197" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="178">
+      <c r="B25" s="177">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
         <v>3</v>
       </c>
@@ -7070,9 +7115,9 @@
         <f>SUM(C22:C24)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="179">
+      <c r="D25" s="178">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="164">
         <f>SUM(E22:E24)</f>
@@ -7082,130 +7127,138 @@
         <f>SUMPRODUCT(F22:F24,G22:G24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="197">
+      <c r="G25" s="196">
         <f>SUM(G22:G24)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="189"/>
-      <c r="I25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="187"/>
     </row>
     <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="307" t="s">
+      <c r="A26" s="317" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="324"/>
-      <c r="C26" s="324"/>
-      <c r="D26" s="309"/>
-      <c r="E26" s="309"/>
-      <c r="F26" s="309"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="348" t="s">
+      <c r="B26" s="318"/>
+      <c r="C26" s="318"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="320"/>
+      <c r="H26" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="187"/>
+      <c r="I26" s="186"/>
     </row>
     <row r="27" spans="1:10" ht="60">
-      <c r="A27" s="279" t="s">
+      <c r="A27" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="280">
-        <v>1</v>
-      </c>
-      <c r="C27" s="281">
+      <c r="B27" s="279">
+        <v>1</v>
+      </c>
+      <c r="C27" s="280">
         <v>2</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="281">
+      <c r="D27" s="273">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="280">
         <v>2</v>
       </c>
       <c r="F27" s="171"/>
-      <c r="G27" s="281">
+      <c r="G27" s="280">
         <v>2</v>
       </c>
-      <c r="H27" s="189"/>
-      <c r="I27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="187"/>
     </row>
     <row r="28" spans="1:10" ht="45">
-      <c r="A28" s="279" t="s">
+      <c r="A28" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="284">
-        <v>1</v>
-      </c>
-      <c r="C28" s="286">
+      <c r="B28" s="283">
+        <v>1</v>
+      </c>
+      <c r="C28" s="285">
         <v>2</v>
       </c>
-      <c r="D28" s="274"/>
-      <c r="E28" s="286">
+      <c r="D28" s="273">
+        <v>1</v>
+      </c>
+      <c r="E28" s="285">
         <v>2</v>
       </c>
       <c r="F28" s="171"/>
-      <c r="G28" s="286">
+      <c r="G28" s="285">
         <v>2</v>
       </c>
-      <c r="H28" s="189"/>
-      <c r="I28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="187"/>
     </row>
     <row r="29" spans="1:10" ht="30">
-      <c r="A29" s="279" t="s">
+      <c r="A29" s="278" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="284">
-        <v>1</v>
-      </c>
-      <c r="C29" s="286">
+      <c r="B29" s="283">
+        <v>1</v>
+      </c>
+      <c r="C29" s="285">
         <v>2</v>
       </c>
-      <c r="D29" s="274"/>
-      <c r="E29" s="286">
+      <c r="D29" s="273">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="285">
         <v>2</v>
       </c>
       <c r="F29" s="171"/>
-      <c r="G29" s="286">
+      <c r="G29" s="285">
         <v>2</v>
       </c>
-      <c r="H29" s="189"/>
-      <c r="I29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="187"/>
     </row>
     <row r="30" spans="1:10" ht="75">
-      <c r="A30" s="279" t="s">
+      <c r="A30" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="284">
+      <c r="B30" s="283">
         <v>0.75</v>
       </c>
-      <c r="C30" s="286">
+      <c r="C30" s="285">
         <v>3</v>
       </c>
-      <c r="D30" s="274"/>
-      <c r="E30" s="286">
+      <c r="D30" s="273">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="285">
         <v>3</v>
       </c>
       <c r="F30" s="171"/>
-      <c r="G30" s="286">
+      <c r="G30" s="285">
         <v>3</v>
       </c>
-      <c r="H30" s="189"/>
-      <c r="I30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="187"/>
       <c r="J30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="289" t="s">
+      <c r="A31" s="288" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="292">
+      <c r="B31" s="291">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
         <v>8.25</v>
       </c>
-      <c r="C31" s="288">
+      <c r="C31" s="287">
         <f>SUM(C27:C30)</f>
         <v>9</v>
       </c>
-      <c r="D31" s="293">
+      <c r="D31" s="292">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="164">
         <f>SUM(E27:E30)</f>
@@ -7215,130 +7268,138 @@
         <f>SUMPRODUCT(F27:F30,G27:G30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="197">
+      <c r="G31" s="196">
         <f>SUM(G27:G30)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="189"/>
-      <c r="I31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="187"/>
     </row>
     <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="307" t="s">
+      <c r="A32" s="317" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="308"/>
-      <c r="C32" s="308"/>
-      <c r="D32" s="309"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="309"/>
-      <c r="G32" s="310"/>
-      <c r="H32" s="348" t="s">
+      <c r="B32" s="328"/>
+      <c r="C32" s="328"/>
+      <c r="D32" s="319"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="319"/>
+      <c r="G32" s="320"/>
+      <c r="H32" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="187"/>
+      <c r="I32" s="186"/>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="269" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="280">
-        <v>0</v>
-      </c>
-      <c r="C33" s="281">
-        <v>1</v>
-      </c>
-      <c r="D33" s="290"/>
-      <c r="E33" s="281">
+      <c r="B33" s="279">
+        <v>0</v>
+      </c>
+      <c r="C33" s="280">
+        <v>1</v>
+      </c>
+      <c r="D33" s="289">
+        <v>0</v>
+      </c>
+      <c r="E33" s="280">
         <v>1</v>
       </c>
       <c r="F33" s="174"/>
-      <c r="G33" s="281">
-        <v>1</v>
-      </c>
-      <c r="H33" s="189"/>
-      <c r="I33" s="188"/>
+      <c r="G33" s="280">
+        <v>1</v>
+      </c>
+      <c r="H33" s="188"/>
+      <c r="I33" s="187"/>
       <c r="J33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="270" t="s">
+      <c r="A34" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="282">
-        <v>1</v>
-      </c>
-      <c r="C34" s="283">
-        <v>1</v>
-      </c>
-      <c r="D34" s="276"/>
-      <c r="E34" s="283">
-        <v>1</v>
-      </c>
-      <c r="F34" s="277"/>
-      <c r="G34" s="283">
-        <v>1</v>
-      </c>
-      <c r="H34" s="189"/>
-      <c r="I34" s="188"/>
+      <c r="B34" s="281">
+        <v>1</v>
+      </c>
+      <c r="C34" s="282">
+        <v>1</v>
+      </c>
+      <c r="D34" s="275">
+        <v>1</v>
+      </c>
+      <c r="E34" s="282">
+        <v>1</v>
+      </c>
+      <c r="F34" s="276"/>
+      <c r="G34" s="282">
+        <v>1</v>
+      </c>
+      <c r="H34" s="188"/>
+      <c r="I34" s="187"/>
     </row>
     <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="278" t="s">
+      <c r="A35" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="284">
-        <v>1</v>
-      </c>
-      <c r="C35" s="285">
+      <c r="B35" s="283">
+        <v>1</v>
+      </c>
+      <c r="C35" s="284">
         <v>3</v>
       </c>
-      <c r="D35" s="274"/>
-      <c r="E35" s="285">
+      <c r="D35" s="273">
+        <v>0</v>
+      </c>
+      <c r="E35" s="284">
         <v>3</v>
       </c>
       <c r="F35" s="171"/>
-      <c r="G35" s="285">
+      <c r="G35" s="284">
         <v>3</v>
       </c>
-      <c r="H35" s="189"/>
-      <c r="I35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="187"/>
     </row>
     <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="279" t="s">
+      <c r="A36" s="278" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="284">
-        <v>1</v>
-      </c>
-      <c r="C36" s="286">
+      <c r="B36" s="283">
+        <v>1</v>
+      </c>
+      <c r="C36" s="285">
         <v>3</v>
       </c>
-      <c r="D36" s="274"/>
-      <c r="E36" s="286">
+      <c r="D36" s="273">
+        <v>1</v>
+      </c>
+      <c r="E36" s="285">
         <v>3</v>
       </c>
       <c r="F36" s="171"/>
-      <c r="G36" s="286">
+      <c r="G36" s="285">
         <v>3</v>
       </c>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="289" t="s">
+      <c r="A37" s="288" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="287">
+      <c r="B37" s="286">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
         <v>7</v>
       </c>
-      <c r="C37" s="288">
+      <c r="C37" s="287">
         <f>SUM(C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="D37" s="291">
+      <c r="D37" s="290">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="164">
         <f>SUM(E33:E36)</f>
@@ -7348,297 +7409,319 @@
         <f>SUMPRODUCT(F33:F36,G33:G36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="197">
+      <c r="G37" s="196">
         <f>SUM(G33:G36)</f>
         <v>8</v>
       </c>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="187"/>
     </row>
     <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="307" t="s">
+      <c r="A38" s="317" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="308"/>
-      <c r="C38" s="308"/>
-      <c r="D38" s="309"/>
-      <c r="E38" s="309"/>
-      <c r="F38" s="309"/>
-      <c r="G38" s="310"/>
-      <c r="H38" s="187" t="s">
+      <c r="B38" s="328"/>
+      <c r="C38" s="328"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="319"/>
+      <c r="F38" s="319"/>
+      <c r="G38" s="320"/>
+      <c r="H38" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="187"/>
+      <c r="I38" s="186"/>
     </row>
     <row r="39" spans="1:10" ht="45">
-      <c r="A39" s="278" t="s">
+      <c r="A39" s="277" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="280">
+      <c r="B39" s="279">
         <v>0.5</v>
       </c>
-      <c r="C39" s="295">
-        <v>1</v>
-      </c>
-      <c r="D39" s="274"/>
-      <c r="E39" s="295">
+      <c r="C39" s="294">
+        <v>1</v>
+      </c>
+      <c r="D39" s="273">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="294">
         <v>1</v>
       </c>
       <c r="F39" s="171"/>
-      <c r="G39" s="295">
-        <v>1</v>
-      </c>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
+      <c r="G39" s="294">
+        <v>1</v>
+      </c>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
       <c r="J39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="278" t="s">
+      <c r="A40" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="284">
-        <v>1</v>
-      </c>
-      <c r="C40" s="285">
+      <c r="B40" s="283">
+        <v>1</v>
+      </c>
+      <c r="C40" s="284">
         <v>4</v>
       </c>
-      <c r="D40" s="274"/>
-      <c r="E40" s="285">
+      <c r="D40" s="273">
+        <v>1</v>
+      </c>
+      <c r="E40" s="284">
         <v>4</v>
       </c>
       <c r="F40" s="171"/>
-      <c r="G40" s="285">
+      <c r="G40" s="284">
         <v>4</v>
       </c>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
     </row>
     <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="278" t="s">
+      <c r="A41" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="284">
-        <v>1</v>
-      </c>
-      <c r="C41" s="285">
+      <c r="B41" s="283">
+        <v>1</v>
+      </c>
+      <c r="C41" s="284">
         <v>3</v>
       </c>
-      <c r="D41" s="274"/>
-      <c r="E41" s="285">
+      <c r="D41" s="273">
+        <v>1</v>
+      </c>
+      <c r="E41" s="284">
         <v>3</v>
       </c>
       <c r="F41" s="171"/>
-      <c r="G41" s="285">
+      <c r="G41" s="284">
         <v>3</v>
       </c>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
     </row>
     <row r="42" spans="1:10" ht="60">
-      <c r="A42" s="278" t="s">
+      <c r="A42" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="284">
+      <c r="B42" s="283">
         <v>0.5</v>
       </c>
-      <c r="C42" s="285">
+      <c r="C42" s="284">
         <v>2</v>
       </c>
-      <c r="D42" s="274"/>
-      <c r="E42" s="285">
+      <c r="D42" s="273">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="284">
         <v>2</v>
       </c>
       <c r="F42" s="171"/>
-      <c r="G42" s="285">
+      <c r="G42" s="284">
         <v>2</v>
       </c>
-      <c r="H42" s="188"/>
+      <c r="H42" s="187"/>
       <c r="J42" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="278" t="s">
+      <c r="A43" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="284">
+      <c r="B43" s="283">
         <v>0.5</v>
       </c>
-      <c r="C43" s="285">
+      <c r="C43" s="284">
         <v>2</v>
       </c>
-      <c r="D43" s="274"/>
-      <c r="E43" s="285">
+      <c r="D43" s="273">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="284">
         <v>2</v>
       </c>
       <c r="F43" s="171"/>
-      <c r="G43" s="285">
+      <c r="G43" s="284">
         <v>2</v>
       </c>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
       <c r="J43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="278" t="s">
+      <c r="A44" s="277" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="284">
-        <v>1</v>
-      </c>
-      <c r="C44" s="285">
+      <c r="B44" s="283">
+        <v>1</v>
+      </c>
+      <c r="C44" s="284">
         <v>3</v>
       </c>
-      <c r="D44" s="274"/>
-      <c r="E44" s="285">
+      <c r="D44" s="273">
+        <v>1</v>
+      </c>
+      <c r="E44" s="284">
         <v>3</v>
       </c>
       <c r="F44" s="171"/>
-      <c r="G44" s="285">
+      <c r="G44" s="284">
         <v>3</v>
       </c>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
     </row>
     <row r="45" spans="1:10" ht="30">
-      <c r="A45" s="278" t="s">
+      <c r="A45" s="277" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="284">
-        <v>0</v>
-      </c>
-      <c r="C45" s="285">
+      <c r="B45" s="283">
+        <v>0</v>
+      </c>
+      <c r="C45" s="284">
         <v>3</v>
       </c>
-      <c r="D45" s="274"/>
-      <c r="E45" s="285">
+      <c r="D45" s="273">
+        <v>1</v>
+      </c>
+      <c r="E45" s="284">
         <v>3</v>
       </c>
       <c r="F45" s="171"/>
-      <c r="G45" s="285">
+      <c r="G45" s="284">
         <v>3</v>
       </c>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
       <c r="J45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="278" t="s">
+      <c r="A46" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="284">
-        <v>0</v>
-      </c>
-      <c r="C46" s="285">
+      <c r="B46" s="283">
+        <v>0</v>
+      </c>
+      <c r="C46" s="284">
         <v>4</v>
       </c>
-      <c r="D46" s="274"/>
-      <c r="E46" s="285">
+      <c r="D46" s="273">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="284">
         <v>4</v>
       </c>
       <c r="F46" s="171"/>
-      <c r="G46" s="285">
+      <c r="G46" s="284">
         <v>4</v>
       </c>
-      <c r="H46" s="188"/>
-      <c r="I46" s="188"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
       <c r="J46" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="60">
-      <c r="A47" s="279" t="s">
+      <c r="A47" s="278" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="284">
+      <c r="B47" s="283">
         <v>0.75</v>
       </c>
-      <c r="C47" s="286">
+      <c r="C47" s="285">
         <v>10</v>
       </c>
-      <c r="D47" s="274"/>
-      <c r="E47" s="286">
+      <c r="D47" s="273">
+        <v>1</v>
+      </c>
+      <c r="E47" s="285">
         <v>10</v>
       </c>
       <c r="F47" s="171"/>
-      <c r="G47" s="286">
+      <c r="G47" s="285">
         <v>10</v>
       </c>
-      <c r="H47" s="188"/>
-      <c r="I47" s="188"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
       <c r="J47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
-      <c r="A48" s="279" t="s">
+      <c r="A48" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="284">
+      <c r="B48" s="283">
         <v>0.75</v>
       </c>
-      <c r="C48" s="286">
+      <c r="C48" s="285">
         <v>6</v>
       </c>
-      <c r="D48" s="274"/>
-      <c r="E48" s="286">
+      <c r="D48" s="273">
+        <v>0.75</v>
+      </c>
+      <c r="E48" s="285">
         <v>6</v>
       </c>
       <c r="F48" s="171"/>
-      <c r="G48" s="286">
+      <c r="G48" s="285">
         <v>6</v>
       </c>
-      <c r="H48" s="188"/>
-      <c r="I48" s="188"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
       <c r="J48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="279" t="s">
+    <row r="49" spans="1:11" ht="15">
+      <c r="A49" s="278" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="284">
+      <c r="B49" s="283">
         <v>0.5</v>
       </c>
-      <c r="C49" s="286">
+      <c r="C49" s="285">
         <v>3</v>
       </c>
-      <c r="D49" s="274"/>
-      <c r="E49" s="286">
+      <c r="D49" s="273">
+        <v>1</v>
+      </c>
+      <c r="E49" s="285">
         <v>3</v>
       </c>
       <c r="F49" s="171"/>
-      <c r="G49" s="286">
+      <c r="G49" s="285">
         <v>3</v>
       </c>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
       <c r="J49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="289" t="s">
+    <row r="50" spans="1:11" ht="15">
+      <c r="A50" s="288" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="287">
+      <c r="B50" s="286">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
         <v>26</v>
       </c>
-      <c r="C50" s="288">
+      <c r="C50" s="287">
         <f>SUM(C39:C49)</f>
         <v>41</v>
       </c>
-      <c r="D50" s="291">
+      <c r="D50" s="290">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>35.75</v>
       </c>
       <c r="E50" s="164">
         <f>SUM(E39:E49)</f>
@@ -7648,30 +7731,30 @@
         <f>SUMPRODUCT(F39:F49,G39:G49)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="197">
+      <c r="G50" s="196">
         <f>SUM(G39:G49)</f>
         <v>41</v>
       </c>
-      <c r="H50" s="189"/>
-      <c r="I50" s="188"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="307" t="s">
+      <c r="H50" s="188"/>
+      <c r="I50" s="187"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A51" s="317" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="315"/>
-      <c r="C51" s="315"/>
-      <c r="D51" s="309"/>
-      <c r="E51" s="309"/>
-      <c r="F51" s="309"/>
-      <c r="G51" s="310"/>
-      <c r="H51" s="348" t="s">
+      <c r="B51" s="321"/>
+      <c r="C51" s="321"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="320"/>
+      <c r="H51" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="187"/>
-    </row>
-    <row r="52" spans="1:10" ht="30">
-      <c r="A52" s="199" t="s">
+      <c r="I51" s="186"/>
+    </row>
+    <row r="52" spans="1:11" ht="30">
+      <c r="A52" s="198" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="172">
@@ -7680,7 +7763,9 @@
       <c r="C52" s="175">
         <v>2</v>
       </c>
-      <c r="D52" s="173"/>
+      <c r="D52" s="173">
+        <v>1</v>
+      </c>
       <c r="E52" s="175">
         <v>2</v>
       </c>
@@ -7688,11 +7773,11 @@
       <c r="G52" s="175">
         <v>2</v>
       </c>
-      <c r="H52" s="189"/>
-      <c r="I52" s="188"/>
-    </row>
-    <row r="53" spans="1:10" ht="30">
-      <c r="A53" s="196" t="s">
+      <c r="H52" s="188"/>
+      <c r="I52" s="187"/>
+    </row>
+    <row r="53" spans="1:11" ht="30">
+      <c r="A53" s="195" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="167">
@@ -7701,7 +7786,9 @@
       <c r="C53" s="161">
         <v>2</v>
       </c>
-      <c r="D53" s="168"/>
+      <c r="D53" s="168">
+        <v>1</v>
+      </c>
       <c r="E53" s="161">
         <v>2</v>
       </c>
@@ -7709,77 +7796,86 @@
       <c r="G53" s="161">
         <v>2</v>
       </c>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-    </row>
-    <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="196" t="s">
+      <c r="H53" s="187"/>
+      <c r="I53" s="187"/>
+    </row>
+    <row r="54" spans="1:11" ht="15">
+      <c r="A54" s="195" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="273">
+      <c r="B54" s="272">
         <v>1</v>
       </c>
       <c r="C54" s="161">
         <v>1</v>
       </c>
-      <c r="D54" s="274"/>
+      <c r="D54" s="273">
+        <v>1</v>
+      </c>
       <c r="E54" s="161">
         <v>1</v>
       </c>
-      <c r="F54" s="275"/>
+      <c r="F54" s="274"/>
       <c r="G54" s="161">
         <v>1</v>
       </c>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
-    </row>
-    <row r="55" spans="1:10" ht="120">
-      <c r="A55" s="196" t="s">
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
+    </row>
+    <row r="55" spans="1:11" ht="120">
+      <c r="A55" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="273">
+      <c r="B55" s="272">
         <v>1</v>
       </c>
       <c r="C55" s="161">
         <v>4</v>
       </c>
-      <c r="D55" s="274"/>
+      <c r="D55" s="273">
+        <v>1</v>
+      </c>
       <c r="E55" s="161">
         <v>4</v>
       </c>
-      <c r="F55" s="275"/>
+      <c r="F55" s="274"/>
       <c r="G55" s="161">
         <v>4</v>
       </c>
-      <c r="H55" s="188"/>
-      <c r="I55" s="188"/>
-    </row>
-    <row r="56" spans="1:10" ht="45">
-      <c r="A56" s="195" t="s">
+      <c r="H55" s="187"/>
+      <c r="I55" s="187"/>
+    </row>
+    <row r="56" spans="1:11" ht="45">
+      <c r="A56" s="194" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="300">
+      <c r="B56" s="299">
         <v>1</v>
       </c>
       <c r="C56" s="158">
         <v>2</v>
       </c>
-      <c r="D56" s="176"/>
+      <c r="D56" s="302">
+        <v>1</v>
+      </c>
       <c r="E56" s="158">
         <v>2</v>
       </c>
-      <c r="F56" s="177"/>
+      <c r="F56" s="176"/>
       <c r="G56" s="158">
         <v>2</v>
       </c>
-      <c r="H56" s="190"/>
-      <c r="I56" s="188"/>
-    </row>
-    <row r="57" spans="1:10" ht="15">
-      <c r="A57" s="200" t="s">
+      <c r="H56" s="189"/>
+      <c r="I56" s="187"/>
+      <c r="K56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15">
+      <c r="A57" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="178">
+      <c r="B57" s="177">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
         <v>11</v>
       </c>
@@ -7787,114 +7883,114 @@
         <f>SUM(C52:C56)</f>
         <v>11</v>
       </c>
-      <c r="D57" s="179">
+      <c r="D57" s="178">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E57" s="164">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="180">
+      <c r="F57" s="179">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="201">
+      <c r="G57" s="200">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="188"/>
-      <c r="I57" s="188"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="307" t="s">
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A58" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="309"/>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
-      <c r="E58" s="309"/>
-      <c r="F58" s="309"/>
-      <c r="G58" s="310"/>
-      <c r="H58" s="187"/>
-      <c r="I58" s="187"/>
-    </row>
-    <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="202" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="181">
+      <c r="B58" s="319"/>
+      <c r="C58" s="319"/>
+      <c r="D58" s="319"/>
+      <c r="E58" s="319"/>
+      <c r="F58" s="319"/>
+      <c r="G58" s="320"/>
+      <c r="H58" s="186"/>
+      <c r="I58" s="186"/>
+    </row>
+    <row r="59" spans="1:11" ht="15">
+      <c r="A59" s="201" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="180">
         <f>B13+B20+B25+B31+B37+B50+B57</f>
         <v>72.25</v>
       </c>
-      <c r="C59" s="182">
+      <c r="C59" s="181">
         <f>C13+C20+C25+C31+C37+C50+C57</f>
         <v>100</v>
       </c>
-      <c r="D59" s="183">
+      <c r="D59" s="182">
         <f>D13+D20+D25+D31+D37+D50+D57</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="184">
+        <v>74</v>
+      </c>
+      <c r="E59" s="183">
         <f>E13+E20+E25+E31+E37+E50+E57</f>
         <v>100</v>
       </c>
-      <c r="F59" s="185">
+      <c r="F59" s="184">
         <f>F13+F20+F25+F31+F37+F50+F57</f>
         <v>0</v>
       </c>
-      <c r="G59" s="203">
+      <c r="G59" s="202">
         <f>G13+G20+G25+G31+G37+G50+G57</f>
         <v>100</v>
       </c>
-      <c r="H59" s="190"/>
-      <c r="I59" s="188"/>
-    </row>
-    <row r="60" spans="1:10" ht="15">
-      <c r="A60" s="204" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="311">
+      <c r="H59" s="189"/>
+      <c r="I59" s="187"/>
+    </row>
+    <row r="60" spans="1:11" ht="15">
+      <c r="A60" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="329">
         <f>B59/C59</f>
         <v>0.72250000000000003</v>
       </c>
-      <c r="C60" s="311"/>
-      <c r="D60" s="312">
+      <c r="C60" s="329"/>
+      <c r="D60" s="330">
         <f>D59/E59</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="312"/>
-      <c r="F60" s="313">
+        <v>0.74</v>
+      </c>
+      <c r="E60" s="330"/>
+      <c r="F60" s="331">
         <f>F59/G59</f>
         <v>0</v>
       </c>
-      <c r="G60" s="314"/>
-      <c r="H60" s="192"/>
-      <c r="I60" s="192"/>
-    </row>
-    <row r="61" spans="1:10" ht="15">
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-    </row>
-    <row r="62" spans="1:10" ht="15">
-      <c r="H62" s="191"/>
-      <c r="I62" s="191"/>
-    </row>
-    <row r="63" spans="1:10" ht="15">
-      <c r="H63" s="191"/>
-      <c r="I63" s="191"/>
-    </row>
-    <row r="64" spans="1:10" ht="15">
-      <c r="H64" s="191"/>
-      <c r="I64" s="191"/>
+      <c r="G60" s="332"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+    </row>
+    <row r="61" spans="1:11" ht="15">
+      <c r="H61" s="190"/>
+      <c r="I61" s="190"/>
+    </row>
+    <row r="62" spans="1:11" ht="15">
+      <c r="H62" s="190"/>
+      <c r="I62" s="190"/>
+    </row>
+    <row r="63" spans="1:11" ht="15">
+      <c r="H63" s="190"/>
+      <c r="I63" s="190"/>
+    </row>
+    <row r="64" spans="1:11" ht="15">
+      <c r="H64" s="190"/>
+      <c r="I64" s="190"/>
     </row>
     <row r="65" spans="8:9" ht="15">
-      <c r="H65" s="191"/>
-      <c r="I65" s="191"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="190"/>
     </row>
     <row r="66" spans="8:9" ht="15">
-      <c r="H66" s="191"/>
-      <c r="I66" s="191"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="190"/>
     </row>
     <row r="67" spans="8:9" ht="15"/>
     <row r="68" spans="8:9" ht="15"/>
@@ -7907,6 +8003,13 @@
     <row r="75" spans="8:9" ht="15"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="J5:L5"/>
@@ -7918,13 +8021,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A51:G51"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -7945,8 +8041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7957,937 +8053,1021 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="341" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="341" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="341"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
+      <c r="A5" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="343"/>
+      <c r="C5" s="343"/>
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="342"/>
-      <c r="C6" s="342"/>
-      <c r="D6" s="342"/>
-      <c r="E6" s="342"/>
-      <c r="F6" s="343"/>
+      <c r="B6" s="344"/>
+      <c r="C6" s="344"/>
+      <c r="D6" s="344"/>
+      <c r="E6" s="344"/>
+      <c r="F6" s="345"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="209" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="210" t="s">
+      <c r="A7" s="208" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="210" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="210" t="s">
+      <c r="C7" s="209" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="210" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="211" t="s">
+      <c r="E7" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="210" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150">
-      <c r="A8" s="212" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="213">
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="211" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="212">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C8" s="213">
-        <v>1</v>
-      </c>
-      <c r="D8" s="213">
+      <c r="C8" s="212">
+        <v>1</v>
+      </c>
+      <c r="D8" s="212">
         <v>14</v>
       </c>
-      <c r="E8" s="213">
-        <f t="shared" ref="E8:E19" si="0">B8*C8*D8</f>
+      <c r="E8" s="212">
+        <f>B8*C8*D8</f>
         <v>12.950000000000001</v>
       </c>
-      <c r="F8" s="214" t="s">
-        <v>153</v>
+      <c r="F8" s="213" t="s">
+        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="213">
-        <v>1</v>
-      </c>
-      <c r="C9" s="213">
-        <v>1</v>
-      </c>
-      <c r="D9" s="213">
+      <c r="A9" s="211" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="212">
+        <v>1</v>
+      </c>
+      <c r="C9" s="212">
+        <v>1</v>
+      </c>
+      <c r="D9" s="212">
         <v>7</v>
       </c>
-      <c r="E9" s="213">
+      <c r="E9" s="212">
+        <f t="shared" ref="E8:E19" si="0">B9*C9*D9</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="214"/>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="211" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="212">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="212">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="212">
+        <v>12</v>
+      </c>
+      <c r="E10" s="212">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="F10" s="214" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="211" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="212">
+        <v>1</v>
+      </c>
+      <c r="C11" s="212">
+        <v>1</v>
+      </c>
+      <c r="D11" s="212">
+        <v>10</v>
+      </c>
+      <c r="E11" s="212">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="214" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="135">
+      <c r="A12" s="211" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="212">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="212">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="212">
+        <v>6</v>
+      </c>
+      <c r="E12" s="212">
+        <f t="shared" si="0"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="F12" s="213" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="211" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="212">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="212">
+        <v>1</v>
+      </c>
+      <c r="D13" s="212">
+        <v>7</v>
+      </c>
+      <c r="E13" s="212">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="F13" s="214" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="211" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="212">
+        <v>1</v>
+      </c>
+      <c r="C14" s="212">
+        <v>1</v>
+      </c>
+      <c r="D14" s="212">
+        <v>8</v>
+      </c>
+      <c r="E14" s="212">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="213"/>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="120">
+      <c r="A15" s="211" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="212">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="212">
+        <v>1</v>
+      </c>
+      <c r="D15" s="212">
+        <v>8</v>
+      </c>
+      <c r="E15" s="212">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F15" s="213" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165">
+      <c r="A16" s="211" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="212">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="212">
+        <v>1</v>
+      </c>
+      <c r="D16" s="212">
+        <v>8</v>
+      </c>
+      <c r="E16" s="212">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F16" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="211" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="212">
+        <v>1</v>
+      </c>
+      <c r="C17" s="212">
+        <v>1</v>
+      </c>
+      <c r="D17" s="212">
+        <v>7</v>
+      </c>
+      <c r="E17" s="212">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9" s="215"/>
-      <c r="G9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="212" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="213">
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="213">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="213">
-        <v>12</v>
-      </c>
-      <c r="E10" s="213">
-        <f t="shared" si="0"/>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="F10" s="215" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="212" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="213">
-        <v>1</v>
-      </c>
-      <c r="C11" s="213">
-        <v>1</v>
-      </c>
-      <c r="D11" s="213">
-        <v>10</v>
-      </c>
-      <c r="E11" s="213">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F11" s="215" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="135">
-      <c r="A12" s="212" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="213">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="213">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="213">
-        <v>6</v>
-      </c>
-      <c r="E12" s="213">
-        <f t="shared" si="0"/>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="F12" s="214" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="212" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="213">
-        <v>0.7</v>
-      </c>
-      <c r="C13" s="213">
-        <v>1</v>
-      </c>
-      <c r="D13" s="213">
-        <v>7</v>
-      </c>
-      <c r="E13" s="213">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="F13" s="215" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="212" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="213">
-        <v>1</v>
-      </c>
-      <c r="C14" s="213">
-        <v>1</v>
-      </c>
-      <c r="D14" s="213">
-        <v>8</v>
-      </c>
-      <c r="E14" s="213">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F14" s="214"/>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="212" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="213">
-        <v>0.9</v>
-      </c>
-      <c r="C15" s="213">
-        <v>1</v>
-      </c>
-      <c r="D15" s="213">
-        <v>8</v>
-      </c>
-      <c r="E15" s="213">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="F15" s="214" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="165">
-      <c r="A16" s="212" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="213">
-        <v>0.9</v>
-      </c>
-      <c r="C16" s="213">
-        <v>1</v>
-      </c>
-      <c r="D16" s="213">
-        <v>8</v>
-      </c>
-      <c r="E16" s="213">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="F16" s="214" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="212" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="213">
-        <v>0.8</v>
-      </c>
-      <c r="C17" s="213">
-        <v>1</v>
-      </c>
-      <c r="D17" s="213">
-        <v>7</v>
-      </c>
-      <c r="E17" s="213">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="F17" s="215" t="s">
-        <v>169</v>
+      <c r="F17" s="214" t="s">
+        <v>170</v>
       </c>
       <c r="G17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="211" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="212">
+        <v>1</v>
+      </c>
+      <c r="C18" s="212">
+        <v>1</v>
+      </c>
+      <c r="D18" s="212">
+        <v>5</v>
+      </c>
+      <c r="E18" s="212">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="214" t="s">
         <v>170</v>
-      </c>
-      <c r="B18" s="213">
-        <v>0.8</v>
-      </c>
-      <c r="C18" s="213">
-        <v>1</v>
-      </c>
-      <c r="D18" s="213">
-        <v>5</v>
-      </c>
-      <c r="E18" s="213">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F18" s="215" t="s">
-        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="212" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="213">
+      <c r="A19" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="212">
         <v>0.95</v>
       </c>
-      <c r="C19" s="213">
-        <v>1</v>
-      </c>
-      <c r="D19" s="213">
+      <c r="C19" s="212">
+        <v>1</v>
+      </c>
+      <c r="D19" s="212">
         <v>8</v>
       </c>
-      <c r="E19" s="213">
+      <c r="E19" s="212">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F19" s="215" t="s">
-        <v>172</v>
+      <c r="F19" s="214" t="s">
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="216" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="344"/>
-      <c r="C20" s="344"/>
-      <c r="D20" s="301">
+      <c r="A20" s="215" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="346"/>
+      <c r="C20" s="346"/>
+      <c r="D20" s="303">
         <f>SUM(D8:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="266">
+      <c r="E20" s="265">
         <f>SUM(E8:E19)/D20 - E22*D22 - E21*D21</f>
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="F20" s="217"/>
+        <v>0.89</v>
+      </c>
+      <c r="F20" s="216"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="218">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="217" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="218">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.25">
+      <c r="A23" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="348"/>
+      <c r="C23" s="348"/>
+      <c r="D23" s="348"/>
+      <c r="E23" s="348"/>
+      <c r="F23" s="349"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A24" s="227" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="333"/>
+      <c r="C24" s="334"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="334"/>
+      <c r="F24" s="335"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="227" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="219" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="219" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="219" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="228" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="227" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="240">
+        <v>0.95</v>
+      </c>
+      <c r="C26" s="240">
+        <v>1</v>
+      </c>
+      <c r="D26" s="219">
+        <v>14</v>
+      </c>
+      <c r="E26" s="219">
+        <f>B26*C26*D26</f>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="F26" s="228"/>
+      <c r="G26" s="301" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="227" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="240">
+        <v>1</v>
+      </c>
+      <c r="C27" s="240">
+        <v>1</v>
+      </c>
+      <c r="D27" s="219">
+        <v>15</v>
+      </c>
+      <c r="E27" s="219">
+        <f t="shared" ref="E27:E37" si="1">B27*C27*D27</f>
+        <v>15</v>
+      </c>
+      <c r="F27" s="228"/>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="227" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="240">
+        <v>0.92</v>
+      </c>
+      <c r="C28" s="240">
+        <v>1</v>
+      </c>
+      <c r="D28" s="219">
+        <v>5</v>
+      </c>
+      <c r="E28" s="219">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="F28" s="228"/>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="240">
+        <v>1</v>
+      </c>
+      <c r="C29" s="240">
+        <v>1</v>
+      </c>
+      <c r="D29" s="219">
+        <v>6</v>
+      </c>
+      <c r="E29" s="219">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="228"/>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="227" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="240">
+        <v>0.96</v>
+      </c>
+      <c r="C30" s="240">
+        <v>1</v>
+      </c>
+      <c r="D30" s="219">
+        <v>6</v>
+      </c>
+      <c r="E30" s="219">
+        <f t="shared" si="1"/>
+        <v>5.76</v>
+      </c>
+      <c r="F30" s="228"/>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="227" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="240">
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="240">
+        <v>1</v>
+      </c>
+      <c r="D31" s="219">
+        <v>10</v>
+      </c>
+      <c r="E31" s="219">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F31" s="228"/>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="227" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="240">
+        <v>1</v>
+      </c>
+      <c r="C32" s="240">
+        <v>1</v>
+      </c>
+      <c r="D32" s="219">
+        <v>6</v>
+      </c>
+      <c r="E32" s="219">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="228"/>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="227" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="240">
+        <v>1</v>
+      </c>
+      <c r="C33" s="240">
+        <v>1</v>
+      </c>
+      <c r="D33" s="219">
+        <v>6</v>
+      </c>
+      <c r="E33" s="219">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F33" s="228"/>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="227" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="240">
+        <v>0.95</v>
+      </c>
+      <c r="C34" s="240">
+        <v>1</v>
+      </c>
+      <c r="D34" s="219">
+        <v>8</v>
+      </c>
+      <c r="E34" s="219">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="F34" s="228"/>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="227" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="240">
+        <v>0.92</v>
+      </c>
+      <c r="C35" s="240">
+        <v>1</v>
+      </c>
+      <c r="D35" s="219">
+        <v>8</v>
+      </c>
+      <c r="E35" s="219">
+        <f t="shared" si="1"/>
+        <v>7.36</v>
+      </c>
+      <c r="F35" s="228"/>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="227" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="240">
+        <v>0.9</v>
+      </c>
+      <c r="C36" s="240">
+        <v>1</v>
+      </c>
+      <c r="D36" s="219">
+        <v>14</v>
+      </c>
+      <c r="E36" s="219">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+      <c r="F36" s="228"/>
+      <c r="G36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="227" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="240">
+        <v>0.85</v>
+      </c>
+      <c r="C37" s="240">
+        <v>1</v>
+      </c>
+      <c r="D37" s="219">
+        <v>2</v>
+      </c>
+      <c r="E37" s="219">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="F37" s="228"/>
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="229" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="219">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="218" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="219">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="345" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="346"/>
-      <c r="C23" s="346"/>
-      <c r="D23" s="346"/>
-      <c r="E23" s="346"/>
-      <c r="F23" s="347"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="228" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="331"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="333"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="228" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="220" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="220" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="220" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="229" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="228" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="220">
-        <v>14</v>
-      </c>
-      <c r="E26" s="220">
-        <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="229"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="228" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="220">
-        <v>15</v>
-      </c>
-      <c r="E27" s="220">
-        <f t="shared" ref="E27:E37" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="229"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="228" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="220">
-        <v>5</v>
-      </c>
-      <c r="E28" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="229"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="228" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="241"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="220">
-        <v>6</v>
-      </c>
-      <c r="E29" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="229"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="228" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="220">
-        <v>6</v>
-      </c>
-      <c r="E30" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="229"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="228" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="220">
-        <v>10</v>
-      </c>
-      <c r="E31" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="229"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="228" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="241"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="220">
-        <v>6</v>
-      </c>
-      <c r="E32" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="229"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="228" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="220">
-        <v>6</v>
-      </c>
-      <c r="E33" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="229"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="228" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="241"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="220">
-        <v>8</v>
-      </c>
-      <c r="E34" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="229"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="228" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="241"/>
-      <c r="C35" s="241"/>
-      <c r="D35" s="220">
-        <v>8</v>
-      </c>
-      <c r="E35" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="229"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="228" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="241"/>
-      <c r="C36" s="241"/>
-      <c r="D36" s="220">
-        <v>14</v>
-      </c>
-      <c r="E36" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="229"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="228" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
-      <c r="D37" s="220">
-        <v>2</v>
-      </c>
-      <c r="E37" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="229"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="230" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250">
+      <c r="B38" s="230"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249">
         <f>SUM(D26:D37)</f>
         <v>100</v>
       </c>
-      <c r="E38" s="232">
+      <c r="E38" s="231">
         <f>SUM(E26:E37)/D38 -E39*D39 -E40*D40-E41*D41</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="233"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="221" t="s">
+        <v>0.94919999999999982</v>
+      </c>
+      <c r="F38" s="232"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="220" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="251"/>
+      <c r="D39" s="250">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="220" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="221">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="220" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="222">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="23.25">
+      <c r="A42" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="337"/>
+      <c r="C42" s="337"/>
+      <c r="D42" s="337"/>
+      <c r="E42" s="337"/>
+      <c r="F42" s="338"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="233" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="339"/>
+      <c r="C43" s="339"/>
+      <c r="D43" s="339"/>
+      <c r="E43" s="339"/>
+      <c r="F43" s="340"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="223" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="223" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="223" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="223" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="235" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="236" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="224"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="224">
+        <v>8</v>
+      </c>
+      <c r="E45" s="224">
+        <f t="shared" ref="E45:E57" si="2">B45*C45*D45</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="235"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="236" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="224"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="224">
+        <v>6</v>
+      </c>
+      <c r="E46" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="237"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="236" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="224"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224">
+        <v>6</v>
+      </c>
+      <c r="E47" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="235"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="236" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="224"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224">
+        <v>6</v>
+      </c>
+      <c r="E48" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="237"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="236" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="224"/>
+      <c r="C49" s="224"/>
+      <c r="D49" s="224">
+        <v>10</v>
+      </c>
+      <c r="E49" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="235"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="236" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="224"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224">
+        <v>10</v>
+      </c>
+      <c r="E50" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="235"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="236" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="224"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="224">
+        <v>12</v>
+      </c>
+      <c r="E51" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="235"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="236" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="242"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="224">
+        <v>12</v>
+      </c>
+      <c r="E52" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="235"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="246" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="244"/>
+      <c r="C53" s="244"/>
+      <c r="D53" s="241">
+        <v>6</v>
+      </c>
+      <c r="E53" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="243"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="246" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="244"/>
+      <c r="C54" s="244"/>
+      <c r="D54" s="241">
+        <v>5</v>
+      </c>
+      <c r="E54" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="243"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="246" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="244"/>
+      <c r="C55" s="244"/>
+      <c r="D55" s="241">
+        <v>5</v>
+      </c>
+      <c r="E55" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="243"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="246" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="244"/>
+      <c r="C56" s="244"/>
+      <c r="D56" s="241">
+        <v>4</v>
+      </c>
+      <c r="E56" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="243"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="246" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="244"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="241">
+        <v>8</v>
+      </c>
+      <c r="E57" s="224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="243"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="246" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="244"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="241">
+        <v>2</v>
+      </c>
+      <c r="E58" s="224">
+        <f t="shared" ref="E52:E58" si="3">B58*C58*D58</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="243"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="247" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="252"/>
-      <c r="D39" s="251">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="222">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="223">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="23.25">
-      <c r="A42" s="334" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="335"/>
-      <c r="C42" s="335"/>
-      <c r="D42" s="335"/>
-      <c r="E42" s="335"/>
-      <c r="F42" s="336"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="234" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="337"/>
-      <c r="C43" s="337"/>
-      <c r="D43" s="337"/>
-      <c r="E43" s="337"/>
-      <c r="F43" s="338"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="235" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="224" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="224" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="224" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="224" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="236" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="237" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="225">
-        <v>8</v>
-      </c>
-      <c r="E45" s="225">
-        <f t="shared" ref="E45:E57" si="2">B45*C45*D45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="236"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="237" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="225"/>
-      <c r="C46" s="225"/>
-      <c r="D46" s="225">
-        <v>6</v>
-      </c>
-      <c r="E46" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="238"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="237" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225">
-        <v>6</v>
-      </c>
-      <c r="E47" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="236"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="237" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="225"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225">
-        <v>6</v>
-      </c>
-      <c r="E48" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="238"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="237" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="225"/>
-      <c r="C49" s="225"/>
-      <c r="D49" s="225">
-        <v>10</v>
-      </c>
-      <c r="E49" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="236"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="237" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="225"/>
-      <c r="C50" s="225"/>
-      <c r="D50" s="225">
-        <v>10</v>
-      </c>
-      <c r="E50" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="236"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="237" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="225"/>
-      <c r="C51" s="225"/>
-      <c r="D51" s="225">
-        <v>12</v>
-      </c>
-      <c r="E51" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="236"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="237" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="243"/>
-      <c r="C52" s="243"/>
-      <c r="D52" s="225">
-        <v>12</v>
-      </c>
-      <c r="E52" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="236"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="247" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="245"/>
-      <c r="C53" s="245"/>
-      <c r="D53" s="242">
-        <v>6</v>
-      </c>
-      <c r="E53" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="244"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="247" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" s="245"/>
-      <c r="C54" s="245"/>
-      <c r="D54" s="242">
-        <v>5</v>
-      </c>
-      <c r="E54" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="244"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="247" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="245"/>
-      <c r="C55" s="245"/>
-      <c r="D55" s="242">
-        <v>5</v>
-      </c>
-      <c r="E55" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="244"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="247" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="245"/>
-      <c r="C56" s="245"/>
-      <c r="D56" s="242">
-        <v>4</v>
-      </c>
-      <c r="E56" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="244"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="247" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" s="245"/>
-      <c r="C57" s="245"/>
-      <c r="D57" s="242">
-        <v>8</v>
-      </c>
-      <c r="E57" s="225">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="244"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="247" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="245"/>
-      <c r="C58" s="245"/>
-      <c r="D58" s="242">
-        <v>2</v>
-      </c>
-      <c r="E58" s="225">
-        <f t="shared" ref="E52:E58" si="3">B58*C58*D58</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="244"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="248" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="246"/>
-      <c r="C59" s="246"/>
-      <c r="D59" s="249">
+      <c r="B59" s="245"/>
+      <c r="C59" s="245"/>
+      <c r="D59" s="248">
         <f>SUM(D45:D58)</f>
         <v>100</v>
       </c>
-      <c r="E59" s="239">
+      <c r="E59" s="238">
         <f>SUM(E45:E58)/D59 - D60*E60  - D61*E61 - D62*E62</f>
         <v>0</v>
       </c>
-      <c r="F59" s="240"/>
+      <c r="F59" s="239"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="226" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="222">
+      <c r="A60" s="225" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="221">
         <v>0.15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="226" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="222">
+      <c r="A61" s="225" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="221">
         <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="227" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="223">
+      <c r="A62" s="226" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="222">
         <v>0.05</v>
       </c>
     </row>
@@ -8956,7 +9136,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="305" t="s">
+      <c r="G2" s="307" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8969,11 +9149,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="305"/>
+      <c r="G3" s="307"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -8999,7 +9179,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -9012,7 +9192,7 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -9025,7 +9205,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -9038,7 +9218,7 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -9051,7 +9231,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -9064,7 +9244,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -9077,7 +9257,7 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -9090,7 +9270,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -9103,7 +9283,7 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -9116,7 +9296,7 @@
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -9129,7 +9309,7 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -9142,7 +9322,7 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -9155,7 +9335,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -9168,7 +9348,7 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -9181,7 +9361,7 @@
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -9194,7 +9374,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -9207,7 +9387,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -9220,7 +9400,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -9233,7 +9413,7 @@
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -9246,7 +9426,7 @@
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -9259,7 +9439,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -9272,7 +9452,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -9369,10 +9549,10 @@
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
-      <c r="H33" s="306" t="s">
+      <c r="H33" s="308" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="306"/>
+      <c r="I33" s="308"/>
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="52" t="s">
@@ -9622,7 +9802,7 @@
     <row r="49" spans="1:6" ht="15"/>
     <row r="50" spans="1:6" ht="15">
       <c r="A50" s="92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -9692,9 +9872,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9830,16 +10013,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9847,5 +10027,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
--- a/Equipe208.xlsx
+++ b/Equipe208.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23517"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39db\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC67B9BE-1B1D-4C11-8DDD-CD1B6705660A}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02EC87A8-6B03-4DDD-A63B-A26F73A65FC4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="229">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -502,6 +502,9 @@
     <t>package-lock.json dans le root et testing-images dans server</t>
   </si>
   <si>
+    <t>package-lock.json dans le root</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
@@ -647,6 +650,9 @@
   </si>
   <si>
     <t>Redimensionnement d'une sélection</t>
+  </si>
+  <si>
+    <t>DT</t>
   </si>
   <si>
     <t>Rotation d'une sélection</t>
@@ -3358,9 +3364,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3727,6 +3730,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6432,7 +6438,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6445,17 +6451,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="205"/>
-      <c r="B3" s="252" t="s">
+      <c r="A3" s="204"/>
+      <c r="B3" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="252" t="s">
+      <c r="C3" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="252" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6466,90 +6472,92 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="255">
+      <c r="A4" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="254">
         <f>(Fonctionnalités!E20)</f>
         <v>0.89</v>
       </c>
-      <c r="C4" s="256">
+      <c r="C4" s="255">
         <f>'Assurance Qualité'!B60</f>
         <v>0.72250000000000003</v>
       </c>
-      <c r="D4" s="256">
+      <c r="D4" s="255">
         <f>AVERAGE(B4:C4) - 0.1*E4</f>
         <v>0.80625000000000002</v>
       </c>
-      <c r="F4" s="267">
+      <c r="F4" s="266">
         <v>15</v>
       </c>
-      <c r="G4" s="266">
+      <c r="G4" s="265">
         <f>D4*F4</f>
         <v>12.09375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="257" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="258">
+      <c r="A5" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="257">
         <f>(Fonctionnalités!E38)</f>
         <v>0.94919999999999982</v>
       </c>
-      <c r="C5" s="259">
+      <c r="C5" s="258">
         <f>'Assurance Qualité'!D60</f>
-        <v>0.74</v>
-      </c>
-      <c r="D5" s="259">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="D5" s="258">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
-        <v>0.84459999999999991</v>
-      </c>
-      <c r="F5" s="267">
+        <v>0.85334999999999983</v>
+      </c>
+      <c r="F5" s="266">
         <v>25</v>
       </c>
-      <c r="G5" s="266">
+      <c r="G5" s="265">
         <f t="shared" ref="G5:G7" si="0">D5*F5</f>
-        <v>21.114999999999998</v>
+        <v>21.333749999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="261">
+      <c r="B6" s="260">
         <f>(Fonctionnalités!E59)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="262">
+        <v>0.95316666666666661</v>
+      </c>
+      <c r="C6" s="261">
         <f>'Assurance Qualité'!F60</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="262">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="D6" s="261">
         <f>AVERAGE(B6:C6) - 0.1*E6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="267">
-        <v>30</v>
-      </c>
-      <c r="G6" s="266">
+        <v>0.83283333333333331</v>
+      </c>
+      <c r="F6" s="266">
+        <v>25</v>
+      </c>
+      <c r="G6" s="265">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.820833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="262" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="268"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="267">
+        <v>1</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="266">
+      <c r="G7" s="265">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6561,8 +6569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6584,12 +6592,12 @@
       <c r="E1" s="310"/>
       <c r="F1" s="310"/>
       <c r="G1" s="311"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A3" s="312" t="s">
@@ -6601,8 +6609,8 @@
       <c r="E3" s="313"/>
       <c r="F3" s="313"/>
       <c r="G3" s="314"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="145"/>
@@ -6631,8 +6639,8 @@
         <v>2</v>
       </c>
       <c r="G5" s="327"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
       <c r="J5" s="315" t="s">
         <v>82</v>
       </c>
@@ -6656,11 +6664,11 @@
       <c r="F6" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="152" t="s">
         <v>0</v>
       </c>
@@ -6682,13 +6690,13 @@
       <c r="E7" s="319"/>
       <c r="F7" s="319"/>
       <c r="G7" s="320"/>
-      <c r="H7" s="186" t="s">
+      <c r="H7" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="186"/>
+      <c r="I7" s="185"/>
     </row>
     <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="192" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="153">
@@ -6704,15 +6712,18 @@
       <c r="E8" s="154">
         <v>3</v>
       </c>
-      <c r="F8" s="156"/>
+      <c r="F8" s="156">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G8" s="154">
         <v>3</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="192" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="157">
@@ -6728,18 +6739,20 @@
       <c r="E9" s="161">
         <v>2</v>
       </c>
-      <c r="F9" s="160"/>
+      <c r="F9" s="160">
+        <v>1</v>
+      </c>
       <c r="G9" s="161">
         <v>2</v>
       </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
       <c r="J9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="269" t="s">
+      <c r="A10" s="268" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="157">
@@ -6755,18 +6768,21 @@
       <c r="E10" s="161">
         <v>3</v>
       </c>
-      <c r="F10" s="160"/>
+      <c r="F10" s="160">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G10" s="161">
         <v>3</v>
       </c>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
       <c r="J10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="193" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="157">
@@ -6781,15 +6797,17 @@
       <c r="E11" s="161">
         <v>2</v>
       </c>
-      <c r="F11" s="160"/>
+      <c r="F11" s="160">
+        <v>0</v>
+      </c>
       <c r="G11" s="161">
         <v>2</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
     </row>
     <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="194" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="157">
@@ -6804,21 +6822,23 @@
       <c r="E12" s="161">
         <v>4</v>
       </c>
-      <c r="F12" s="160"/>
+      <c r="F12" s="160">
+        <v>0</v>
+      </c>
       <c r="G12" s="161">
         <v>4</v>
       </c>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
       <c r="J12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="177">
+      <c r="B13" s="176">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
         <v>7.5</v>
       </c>
@@ -6826,7 +6846,7 @@
         <f>SUM(C8:C12)</f>
         <v>14</v>
       </c>
-      <c r="D13" s="178">
+      <c r="D13" s="177">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
         <v>8</v>
       </c>
@@ -6836,14 +6856,14 @@
       </c>
       <c r="F13" s="165">
         <f>SUMPRODUCT(F8:F12,G8:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="196">
+        <v>6.5</v>
+      </c>
+      <c r="G13" s="195">
         <f>SUM(G8:G12)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A14" s="317" t="s">
@@ -6855,151 +6875,163 @@
       <c r="E14" s="319"/>
       <c r="F14" s="319"/>
       <c r="G14" s="320"/>
-      <c r="H14" s="186" t="s">
+      <c r="H14" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="186"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:13" ht="409.6">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="293">
-        <v>0</v>
-      </c>
-      <c r="C15" s="294">
+      <c r="B15" s="292">
+        <v>0</v>
+      </c>
+      <c r="C15" s="293">
         <v>2</v>
       </c>
-      <c r="D15" s="297">
+      <c r="D15" s="296">
         <f>0.25/2</f>
         <v>0.125</v>
       </c>
-      <c r="E15" s="294">
+      <c r="E15" s="293">
         <v>2</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="294">
+      <c r="F15" s="166">
+        <v>0</v>
+      </c>
+      <c r="G15" s="293">
         <v>2</v>
       </c>
-      <c r="H15" s="188"/>
-      <c r="I15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="186"/>
       <c r="J15" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30">
-      <c r="A16" s="269" t="s">
+      <c r="A16" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="295">
+      <c r="B16" s="294">
         <v>0.5</v>
       </c>
-      <c r="C16" s="284">
+      <c r="C16" s="283">
         <v>3</v>
       </c>
-      <c r="D16" s="270">
-        <f>1.25/3</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E16" s="284">
+      <c r="D16" s="269">
+        <f>1.5/3</f>
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="283">
         <v>3</v>
       </c>
-      <c r="F16" s="271"/>
-      <c r="G16" s="284">
+      <c r="F16" s="270">
+        <f>1.5/3</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="283">
         <v>3</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="186"/>
       <c r="J16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45">
-      <c r="A17" s="277" t="s">
+      <c r="A17" s="276" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="283">
-        <v>1</v>
-      </c>
-      <c r="C17" s="284">
+      <c r="B17" s="282">
+        <v>1</v>
+      </c>
+      <c r="C17" s="283">
         <v>3</v>
       </c>
-      <c r="D17" s="273">
+      <c r="D17" s="272">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E17" s="284">
+      <c r="E17" s="283">
         <v>3</v>
       </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="284">
+      <c r="F17" s="169">
+        <v>1</v>
+      </c>
+      <c r="G17" s="283">
         <v>3</v>
       </c>
-      <c r="H17" s="188"/>
-      <c r="I17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="186"/>
     </row>
     <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="277" t="s">
+      <c r="A18" s="276" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="283">
-        <v>1</v>
-      </c>
-      <c r="C18" s="284">
+      <c r="B18" s="282">
+        <v>1</v>
+      </c>
+      <c r="C18" s="283">
         <v>3</v>
       </c>
-      <c r="D18" s="273">
-        <v>1</v>
-      </c>
-      <c r="E18" s="284">
+      <c r="D18" s="272">
+        <v>1</v>
+      </c>
+      <c r="E18" s="283">
         <v>3</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="284">
+      <c r="F18" s="169">
+        <f>2.75/3</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G18" s="283">
         <v>3</v>
       </c>
-      <c r="H18" s="188"/>
-      <c r="I18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="278" t="s">
+      <c r="A19" s="277" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="296">
-        <v>1</v>
-      </c>
-      <c r="C19" s="284">
+      <c r="B19" s="295">
+        <v>1</v>
+      </c>
+      <c r="C19" s="283">
         <v>2</v>
       </c>
-      <c r="D19" s="298">
+      <c r="D19" s="297">
         <f>1.75/2</f>
         <v>0.875</v>
       </c>
-      <c r="E19" s="284">
+      <c r="E19" s="283">
         <v>2</v>
       </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="284">
+      <c r="F19" s="169">
+        <v>1</v>
+      </c>
+      <c r="G19" s="283">
         <v>2</v>
       </c>
-      <c r="H19" s="188"/>
-      <c r="I19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="186"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="288" t="s">
+      <c r="A20" s="287" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="291">
+      <c r="B20" s="290">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
         <v>9.5</v>
       </c>
-      <c r="C20" s="287">
+      <c r="C20" s="286">
         <f>SUM(C15:C19)</f>
         <v>13</v>
       </c>
-      <c r="D20" s="292">
+      <c r="D20" s="291">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="E20" s="162">
         <f>SUM(E15:E19)</f>
@@ -7007,14 +7039,14 @@
       </c>
       <c r="F20" s="170">
         <f>SUMPRODUCT(F15:F19,G15:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="196">
+        <v>9.25</v>
+      </c>
+      <c r="G20" s="195">
         <f>SUM(G15:G19)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="188"/>
-      <c r="I20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="186"/>
     </row>
     <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
       <c r="A21" s="317" t="s">
@@ -7026,13 +7058,13 @@
       <c r="E21" s="319"/>
       <c r="F21" s="319"/>
       <c r="G21" s="320"/>
-      <c r="H21" s="186" t="s">
+      <c r="H21" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="186"/>
+      <c r="I21" s="185"/>
     </row>
     <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="193" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="157">
@@ -7047,15 +7079,17 @@
       <c r="E22" s="158">
         <v>2</v>
       </c>
-      <c r="F22" s="160"/>
+      <c r="F22" s="160">
+        <v>1</v>
+      </c>
       <c r="G22" s="158">
         <v>2</v>
       </c>
-      <c r="H22" s="188"/>
-      <c r="I22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="186"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="194" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="157">
@@ -7070,15 +7104,17 @@
       <c r="E23" s="161">
         <v>1</v>
       </c>
-      <c r="F23" s="160"/>
+      <c r="F23" s="160">
+        <v>1</v>
+      </c>
       <c r="G23" s="161">
         <v>1</v>
       </c>
-      <c r="H23" s="188"/>
-      <c r="I23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="194" t="s">
         <v>105</v>
       </c>
       <c r="B24" s="157">
@@ -7093,21 +7129,23 @@
       <c r="E24" s="161">
         <v>1</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="160">
+        <v>0</v>
+      </c>
       <c r="G24" s="161">
         <v>1</v>
       </c>
-      <c r="H24" s="188"/>
-      <c r="I24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="186"/>
       <c r="J24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="177">
+      <c r="B25" s="176">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
         <v>3</v>
       </c>
@@ -7115,7 +7153,7 @@
         <f>SUM(C22:C24)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="178">
+      <c r="D25" s="177">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
         <v>3</v>
       </c>
@@ -7125,14 +7163,14 @@
       </c>
       <c r="F25" s="165">
         <f>SUMPRODUCT(F22:F24,G22:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="196">
+        <v>3</v>
+      </c>
+      <c r="G25" s="195">
         <f>SUM(G22:G24)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="188"/>
-      <c r="I25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="186"/>
     </row>
     <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
       <c r="A26" s="317" t="s">
@@ -7144,121 +7182,129 @@
       <c r="E26" s="319"/>
       <c r="F26" s="319"/>
       <c r="G26" s="320"/>
-      <c r="H26" s="300" t="s">
+      <c r="H26" s="299" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="185"/>
     </row>
     <row r="27" spans="1:10" ht="60">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="277" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="279">
-        <v>1</v>
-      </c>
-      <c r="C27" s="280">
+      <c r="B27" s="278">
+        <v>1</v>
+      </c>
+      <c r="C27" s="279">
         <v>2</v>
       </c>
-      <c r="D27" s="273">
+      <c r="D27" s="272">
         <v>0.5</v>
       </c>
-      <c r="E27" s="280">
+      <c r="E27" s="279">
         <v>2</v>
       </c>
-      <c r="F27" s="171"/>
-      <c r="G27" s="280">
+      <c r="F27" s="171">
+        <v>1</v>
+      </c>
+      <c r="G27" s="279">
         <v>2</v>
       </c>
-      <c r="H27" s="188"/>
-      <c r="I27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="186"/>
     </row>
     <row r="28" spans="1:10" ht="45">
-      <c r="A28" s="278" t="s">
+      <c r="A28" s="277" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="283">
-        <v>1</v>
-      </c>
-      <c r="C28" s="285">
+      <c r="B28" s="282">
+        <v>1</v>
+      </c>
+      <c r="C28" s="284">
         <v>2</v>
       </c>
-      <c r="D28" s="273">
-        <v>1</v>
-      </c>
-      <c r="E28" s="285">
+      <c r="D28" s="272">
+        <v>1</v>
+      </c>
+      <c r="E28" s="284">
         <v>2</v>
       </c>
-      <c r="F28" s="171"/>
-      <c r="G28" s="285">
+      <c r="F28" s="171">
+        <v>1</v>
+      </c>
+      <c r="G28" s="284">
         <v>2</v>
       </c>
-      <c r="H28" s="188"/>
-      <c r="I28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="186"/>
     </row>
     <row r="29" spans="1:10" ht="30">
-      <c r="A29" s="278" t="s">
+      <c r="A29" s="277" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="283">
-        <v>1</v>
-      </c>
-      <c r="C29" s="285">
+      <c r="B29" s="282">
+        <v>1</v>
+      </c>
+      <c r="C29" s="284">
         <v>2</v>
       </c>
-      <c r="D29" s="273">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="285">
+      <c r="D29" s="272">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="284">
         <v>2</v>
       </c>
-      <c r="F29" s="171"/>
-      <c r="G29" s="285">
+      <c r="F29" s="171">
+        <v>0</v>
+      </c>
+      <c r="G29" s="284">
         <v>2</v>
       </c>
-      <c r="H29" s="188"/>
-      <c r="I29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="186"/>
     </row>
     <row r="30" spans="1:10" ht="75">
-      <c r="A30" s="278" t="s">
+      <c r="A30" s="277" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="283">
+      <c r="B30" s="282">
         <v>0.75</v>
       </c>
-      <c r="C30" s="285">
+      <c r="C30" s="284">
         <v>3</v>
       </c>
-      <c r="D30" s="273">
+      <c r="D30" s="272">
         <v>0.5</v>
       </c>
-      <c r="E30" s="285">
+      <c r="E30" s="284">
         <v>3</v>
       </c>
-      <c r="F30" s="171"/>
-      <c r="G30" s="285">
+      <c r="F30" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="284">
         <v>3</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="186"/>
       <c r="J30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="288" t="s">
+      <c r="A31" s="287" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="291">
+      <c r="B31" s="290">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
         <v>8.25</v>
       </c>
-      <c r="C31" s="287">
+      <c r="C31" s="286">
         <f>SUM(C27:C30)</f>
         <v>9</v>
       </c>
-      <c r="D31" s="292">
+      <c r="D31" s="291">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E31" s="164">
         <f>SUM(E27:E30)</f>
@@ -7266,14 +7312,14 @@
       </c>
       <c r="F31" s="165">
         <f>SUMPRODUCT(F27:F30,G27:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="196">
+        <v>5.5</v>
+      </c>
+      <c r="G31" s="195">
         <f>SUM(G27:G30)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="188"/>
-      <c r="I31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="186"/>
     </row>
     <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
       <c r="A32" s="317" t="s">
@@ -7285,121 +7331,129 @@
       <c r="E32" s="319"/>
       <c r="F32" s="319"/>
       <c r="G32" s="320"/>
-      <c r="H32" s="300" t="s">
+      <c r="H32" s="299" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="186"/>
+      <c r="I32" s="185"/>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="269" t="s">
+      <c r="A33" s="268" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="279">
-        <v>0</v>
-      </c>
-      <c r="C33" s="280">
-        <v>1</v>
-      </c>
-      <c r="D33" s="289">
-        <v>0</v>
-      </c>
-      <c r="E33" s="280">
-        <v>1</v>
-      </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="280">
-        <v>1</v>
-      </c>
-      <c r="H33" s="188"/>
-      <c r="I33" s="187"/>
+      <c r="B33" s="278">
+        <v>0</v>
+      </c>
+      <c r="C33" s="279">
+        <v>1</v>
+      </c>
+      <c r="D33" s="288">
+        <v>1</v>
+      </c>
+      <c r="E33" s="279">
+        <v>1</v>
+      </c>
+      <c r="F33" s="174">
+        <v>1</v>
+      </c>
+      <c r="G33" s="279">
+        <v>1</v>
+      </c>
+      <c r="H33" s="187"/>
+      <c r="I33" s="186"/>
       <c r="J33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="269" t="s">
+      <c r="A34" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="281">
-        <v>1</v>
-      </c>
-      <c r="C34" s="282">
-        <v>1</v>
-      </c>
-      <c r="D34" s="275">
-        <v>1</v>
-      </c>
-      <c r="E34" s="282">
-        <v>1</v>
-      </c>
-      <c r="F34" s="276"/>
-      <c r="G34" s="282">
-        <v>1</v>
-      </c>
-      <c r="H34" s="188"/>
-      <c r="I34" s="187"/>
+      <c r="B34" s="280">
+        <v>1</v>
+      </c>
+      <c r="C34" s="281">
+        <v>1</v>
+      </c>
+      <c r="D34" s="274">
+        <v>1</v>
+      </c>
+      <c r="E34" s="281">
+        <v>1</v>
+      </c>
+      <c r="F34" s="275">
+        <v>1</v>
+      </c>
+      <c r="G34" s="281">
+        <v>1</v>
+      </c>
+      <c r="H34" s="187"/>
+      <c r="I34" s="186"/>
     </row>
     <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="276" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="283">
-        <v>1</v>
-      </c>
-      <c r="C35" s="284">
+      <c r="B35" s="282">
+        <v>1</v>
+      </c>
+      <c r="C35" s="283">
         <v>3</v>
       </c>
-      <c r="D35" s="273">
-        <v>0</v>
-      </c>
-      <c r="E35" s="284">
+      <c r="D35" s="272">
+        <v>0</v>
+      </c>
+      <c r="E35" s="283">
         <v>3</v>
       </c>
-      <c r="F35" s="171"/>
-      <c r="G35" s="284">
+      <c r="F35" s="171">
+        <v>0</v>
+      </c>
+      <c r="G35" s="283">
         <v>3</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="186"/>
     </row>
     <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="278" t="s">
+      <c r="A36" s="277" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="283">
-        <v>1</v>
-      </c>
-      <c r="C36" s="285">
+      <c r="B36" s="282">
+        <v>1</v>
+      </c>
+      <c r="C36" s="284">
         <v>3</v>
       </c>
-      <c r="D36" s="273">
-        <v>1</v>
-      </c>
-      <c r="E36" s="285">
+      <c r="D36" s="272">
+        <v>1</v>
+      </c>
+      <c r="E36" s="284">
         <v>3</v>
       </c>
-      <c r="F36" s="171"/>
-      <c r="G36" s="285">
+      <c r="F36" s="171">
+        <v>1</v>
+      </c>
+      <c r="G36" s="284">
         <v>3</v>
       </c>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="288" t="s">
+      <c r="A37" s="287" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="286">
+      <c r="B37" s="285">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
         <v>7</v>
       </c>
-      <c r="C37" s="287">
+      <c r="C37" s="286">
         <f>SUM(C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="D37" s="290">
+      <c r="D37" s="289">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="164">
         <f>SUM(E33:E36)</f>
@@ -7407,14 +7461,14 @@
       </c>
       <c r="F37" s="165">
         <f>SUMPRODUCT(F33:F36,G33:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="196">
+        <v>5</v>
+      </c>
+      <c r="G37" s="195">
         <f>SUM(G33:G36)</f>
         <v>8</v>
       </c>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="186"/>
     </row>
     <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
       <c r="A38" s="317" t="s">
@@ -7426,300 +7480,322 @@
       <c r="E38" s="319"/>
       <c r="F38" s="319"/>
       <c r="G38" s="320"/>
-      <c r="H38" s="186" t="s">
+      <c r="H38" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="186"/>
+      <c r="I38" s="185"/>
     </row>
     <row r="39" spans="1:10" ht="45">
-      <c r="A39" s="277" t="s">
+      <c r="A39" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="279">
+      <c r="B39" s="278">
         <v>0.5</v>
       </c>
-      <c r="C39" s="294">
-        <v>1</v>
-      </c>
-      <c r="D39" s="273">
+      <c r="C39" s="293">
+        <v>1</v>
+      </c>
+      <c r="D39" s="272">
         <v>0.75</v>
       </c>
-      <c r="E39" s="294">
-        <v>1</v>
-      </c>
-      <c r="F39" s="171"/>
-      <c r="G39" s="294">
-        <v>1</v>
-      </c>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
+      <c r="E39" s="293">
+        <v>1</v>
+      </c>
+      <c r="F39" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="293">
+        <v>1</v>
+      </c>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
       <c r="J39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="276" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="283">
-        <v>1</v>
-      </c>
-      <c r="C40" s="284">
+      <c r="B40" s="282">
+        <v>1</v>
+      </c>
+      <c r="C40" s="283">
         <v>4</v>
       </c>
-      <c r="D40" s="273">
-        <v>1</v>
-      </c>
-      <c r="E40" s="284">
+      <c r="D40" s="272">
+        <v>1</v>
+      </c>
+      <c r="E40" s="283">
         <v>4</v>
       </c>
-      <c r="F40" s="171"/>
-      <c r="G40" s="284">
+      <c r="F40" s="171">
+        <v>1</v>
+      </c>
+      <c r="G40" s="283">
         <v>4</v>
       </c>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
     </row>
     <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="277" t="s">
+      <c r="A41" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="283">
-        <v>1</v>
-      </c>
-      <c r="C41" s="284">
+      <c r="B41" s="282">
+        <v>1</v>
+      </c>
+      <c r="C41" s="283">
         <v>3</v>
       </c>
-      <c r="D41" s="273">
-        <v>1</v>
-      </c>
-      <c r="E41" s="284">
+      <c r="D41" s="272">
+        <v>1</v>
+      </c>
+      <c r="E41" s="283">
         <v>3</v>
       </c>
-      <c r="F41" s="171"/>
-      <c r="G41" s="284">
+      <c r="F41" s="171">
+        <v>1</v>
+      </c>
+      <c r="G41" s="283">
         <v>3</v>
       </c>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
     </row>
     <row r="42" spans="1:10" ht="60">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="276" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="283">
+      <c r="B42" s="282">
         <v>0.5</v>
       </c>
-      <c r="C42" s="284">
+      <c r="C42" s="283">
         <v>2</v>
       </c>
-      <c r="D42" s="273">
+      <c r="D42" s="272">
         <v>0.75</v>
       </c>
-      <c r="E42" s="284">
+      <c r="E42" s="283">
         <v>2</v>
       </c>
-      <c r="F42" s="171"/>
-      <c r="G42" s="284">
+      <c r="F42" s="171">
+        <v>1</v>
+      </c>
+      <c r="G42" s="283">
         <v>2</v>
       </c>
-      <c r="H42" s="187"/>
+      <c r="H42" s="186"/>
       <c r="J42" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="277" t="s">
+      <c r="A43" s="276" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="283">
+      <c r="B43" s="282">
         <v>0.5</v>
       </c>
-      <c r="C43" s="284">
+      <c r="C43" s="283">
         <v>2</v>
       </c>
-      <c r="D43" s="273">
+      <c r="D43" s="272">
         <v>0.5</v>
       </c>
-      <c r="E43" s="284">
+      <c r="E43" s="283">
         <v>2</v>
       </c>
-      <c r="F43" s="171"/>
-      <c r="G43" s="284">
+      <c r="F43" s="171">
+        <v>1</v>
+      </c>
+      <c r="G43" s="283">
         <v>2</v>
       </c>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
       <c r="J43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="277" t="s">
+      <c r="A44" s="276" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="283">
-        <v>1</v>
-      </c>
-      <c r="C44" s="284">
+      <c r="B44" s="282">
+        <v>1</v>
+      </c>
+      <c r="C44" s="283">
         <v>3</v>
       </c>
-      <c r="D44" s="273">
-        <v>1</v>
-      </c>
-      <c r="E44" s="284">
+      <c r="D44" s="272">
+        <v>1</v>
+      </c>
+      <c r="E44" s="283">
         <v>3</v>
       </c>
-      <c r="F44" s="171"/>
-      <c r="G44" s="284">
+      <c r="F44" s="171">
+        <v>1</v>
+      </c>
+      <c r="G44" s="283">
         <v>3</v>
       </c>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
     </row>
     <row r="45" spans="1:10" ht="30">
-      <c r="A45" s="277" t="s">
+      <c r="A45" s="276" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="283">
-        <v>0</v>
-      </c>
-      <c r="C45" s="284">
+      <c r="B45" s="282">
+        <v>0</v>
+      </c>
+      <c r="C45" s="283">
         <v>3</v>
       </c>
-      <c r="D45" s="273">
-        <v>1</v>
-      </c>
-      <c r="E45" s="284">
+      <c r="D45" s="272">
+        <v>1</v>
+      </c>
+      <c r="E45" s="283">
         <v>3</v>
       </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="284">
+      <c r="F45" s="171">
+        <v>1</v>
+      </c>
+      <c r="G45" s="283">
         <v>3</v>
       </c>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
+      <c r="H45" s="186"/>
+      <c r="I45" s="186"/>
       <c r="J45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="277" t="s">
+      <c r="A46" s="276" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="283">
-        <v>0</v>
-      </c>
-      <c r="C46" s="284">
+      <c r="B46" s="282">
+        <v>0</v>
+      </c>
+      <c r="C46" s="283">
         <v>4</v>
       </c>
-      <c r="D46" s="273">
+      <c r="D46" s="272">
         <v>0.5</v>
       </c>
-      <c r="E46" s="284">
+      <c r="E46" s="283">
         <v>4</v>
       </c>
-      <c r="F46" s="171"/>
-      <c r="G46" s="284">
+      <c r="F46" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="283">
         <v>4</v>
       </c>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="60">
-      <c r="A47" s="278" t="s">
+      <c r="A47" s="277" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="283">
+      <c r="B47" s="282">
         <v>0.75</v>
       </c>
-      <c r="C47" s="285">
+      <c r="C47" s="284">
         <v>10</v>
       </c>
-      <c r="D47" s="273">
-        <v>1</v>
-      </c>
-      <c r="E47" s="285">
+      <c r="D47" s="272">
+        <v>1</v>
+      </c>
+      <c r="E47" s="284">
         <v>10</v>
       </c>
-      <c r="F47" s="171"/>
-      <c r="G47" s="285">
+      <c r="F47" s="171">
+        <v>0.75</v>
+      </c>
+      <c r="G47" s="284">
         <v>10</v>
       </c>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
       <c r="J47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
-      <c r="A48" s="278" t="s">
+      <c r="A48" s="277" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="283">
+      <c r="B48" s="282">
         <v>0.75</v>
       </c>
-      <c r="C48" s="285">
+      <c r="C48" s="284">
         <v>6</v>
       </c>
-      <c r="D48" s="273">
+      <c r="D48" s="272">
         <v>0.75</v>
       </c>
-      <c r="E48" s="285">
+      <c r="E48" s="284">
         <v>6</v>
       </c>
-      <c r="F48" s="171"/>
-      <c r="G48" s="285">
+      <c r="F48" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="284">
         <v>6</v>
       </c>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
       <c r="J48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15">
-      <c r="A49" s="278" t="s">
+    <row r="49" spans="1:12" ht="15">
+      <c r="A49" s="277" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="283">
+      <c r="B49" s="282">
         <v>0.5</v>
       </c>
-      <c r="C49" s="285">
+      <c r="C49" s="284">
         <v>3</v>
       </c>
-      <c r="D49" s="273">
-        <v>1</v>
-      </c>
-      <c r="E49" s="285">
+      <c r="D49" s="272">
+        <v>1</v>
+      </c>
+      <c r="E49" s="284">
         <v>3</v>
       </c>
-      <c r="F49" s="171"/>
-      <c r="G49" s="285">
+      <c r="F49" s="171">
+        <v>1</v>
+      </c>
+      <c r="G49" s="284">
         <v>3</v>
       </c>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
       <c r="J49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15">
-      <c r="A50" s="288" t="s">
+    <row r="50" spans="1:12" ht="15">
+      <c r="A50" s="287" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="286">
+      <c r="B50" s="285">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
         <v>26</v>
       </c>
-      <c r="C50" s="287">
+      <c r="C50" s="286">
         <f>SUM(C39:C49)</f>
         <v>41</v>
       </c>
-      <c r="D50" s="290">
+      <c r="D50" s="289">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
         <v>35.75</v>
       </c>
@@ -7729,16 +7805,16 @@
       </c>
       <c r="F50" s="165">
         <f>SUMPRODUCT(F39:F49,G39:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="196">
+        <v>33</v>
+      </c>
+      <c r="G50" s="195">
         <f>SUM(G39:G49)</f>
         <v>41</v>
       </c>
-      <c r="H50" s="188"/>
-      <c r="I50" s="187"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="H50" s="187"/>
+      <c r="I50" s="186"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.399999999999999" customHeight="1">
       <c r="A51" s="317" t="s">
         <v>141</v>
       </c>
@@ -7748,13 +7824,13 @@
       <c r="E51" s="319"/>
       <c r="F51" s="319"/>
       <c r="G51" s="320"/>
-      <c r="H51" s="300" t="s">
+      <c r="H51" s="299" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="186"/>
-    </row>
-    <row r="52" spans="1:11" ht="30">
-      <c r="A52" s="198" t="s">
+      <c r="I51" s="185"/>
+    </row>
+    <row r="52" spans="1:12" ht="30">
+      <c r="A52" s="197" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="172">
@@ -7769,15 +7845,17 @@
       <c r="E52" s="175">
         <v>2</v>
       </c>
-      <c r="F52" s="174"/>
+      <c r="F52" s="174">
+        <v>1</v>
+      </c>
       <c r="G52" s="175">
         <v>2</v>
       </c>
-      <c r="H52" s="188"/>
-      <c r="I52" s="187"/>
-    </row>
-    <row r="53" spans="1:11" ht="30">
-      <c r="A53" s="195" t="s">
+      <c r="H52" s="187"/>
+      <c r="I52" s="186"/>
+    </row>
+    <row r="53" spans="1:12" ht="30">
+      <c r="A53" s="194" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="167">
@@ -7792,90 +7870,101 @@
       <c r="E53" s="161">
         <v>2</v>
       </c>
-      <c r="F53" s="171"/>
+      <c r="F53" s="171">
+        <v>1</v>
+      </c>
       <c r="G53" s="161">
         <v>2</v>
       </c>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
-    </row>
-    <row r="54" spans="1:11" ht="15">
-      <c r="A54" s="195" t="s">
+      <c r="H53" s="186"/>
+      <c r="I53" s="186"/>
+    </row>
+    <row r="54" spans="1:12" ht="15">
+      <c r="A54" s="194" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="272">
+      <c r="B54" s="271">
         <v>1</v>
       </c>
       <c r="C54" s="161">
         <v>1</v>
       </c>
-      <c r="D54" s="273">
+      <c r="D54" s="272">
         <v>1</v>
       </c>
       <c r="E54" s="161">
         <v>1</v>
       </c>
-      <c r="F54" s="274"/>
+      <c r="F54" s="273">
+        <v>1</v>
+      </c>
       <c r="G54" s="161">
         <v>1</v>
       </c>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-    </row>
-    <row r="55" spans="1:11" ht="120">
-      <c r="A55" s="195" t="s">
+      <c r="H54" s="186"/>
+      <c r="I54" s="186"/>
+    </row>
+    <row r="55" spans="1:12" ht="120">
+      <c r="A55" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="272">
+      <c r="B55" s="271">
         <v>1</v>
       </c>
       <c r="C55" s="161">
         <v>4</v>
       </c>
-      <c r="D55" s="273">
+      <c r="D55" s="272">
         <v>1</v>
       </c>
       <c r="E55" s="161">
         <v>4</v>
       </c>
-      <c r="F55" s="274"/>
+      <c r="F55" s="273">
+        <v>1</v>
+      </c>
       <c r="G55" s="161">
         <v>4</v>
       </c>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-    </row>
-    <row r="56" spans="1:11" ht="45">
-      <c r="A56" s="194" t="s">
+      <c r="H55" s="186"/>
+      <c r="I55" s="186"/>
+    </row>
+    <row r="56" spans="1:12" ht="45">
+      <c r="A56" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="299">
+      <c r="B56" s="298">
         <v>1</v>
       </c>
       <c r="C56" s="158">
         <v>2</v>
       </c>
-      <c r="D56" s="302">
+      <c r="D56" s="301">
         <v>1</v>
       </c>
       <c r="E56" s="158">
         <v>2</v>
       </c>
-      <c r="F56" s="176"/>
+      <c r="F56" s="302">
+        <v>0</v>
+      </c>
       <c r="G56" s="158">
         <v>2</v>
       </c>
-      <c r="H56" s="189"/>
-      <c r="I56" s="187"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="186"/>
       <c r="K56" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15">
-      <c r="A57" s="199" t="s">
+      <c r="L56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15">
+      <c r="A57" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="177">
+      <c r="B57" s="176">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
         <v>11</v>
       </c>
@@ -7883,7 +7972,7 @@
         <f>SUM(C52:C56)</f>
         <v>11</v>
       </c>
-      <c r="D57" s="178">
+      <c r="D57" s="177">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
         <v>11</v>
       </c>
@@ -7891,18 +7980,18 @@
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="179">
+      <c r="F57" s="178">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="200">
+        <v>9</v>
+      </c>
+      <c r="G57" s="199">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="H57" s="186"/>
+      <c r="I57" s="186"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.399999999999999" customHeight="1">
       <c r="A58" s="317" t="s">
         <v>76</v>
       </c>
@@ -7912,43 +8001,43 @@
       <c r="E58" s="319"/>
       <c r="F58" s="319"/>
       <c r="G58" s="320"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="186"/>
-    </row>
-    <row r="59" spans="1:11" ht="15">
-      <c r="A59" s="201" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="180">
+      <c r="H58" s="185"/>
+      <c r="I58" s="185"/>
+    </row>
+    <row r="59" spans="1:12" ht="15">
+      <c r="A59" s="200" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="179">
         <f>B13+B20+B25+B31+B37+B50+B57</f>
         <v>72.25</v>
       </c>
-      <c r="C59" s="181">
+      <c r="C59" s="180">
         <f>C13+C20+C25+C31+C37+C50+C57</f>
         <v>100</v>
       </c>
-      <c r="D59" s="182">
+      <c r="D59" s="181">
         <f>D13+D20+D25+D31+D37+D50+D57</f>
-        <v>74</v>
-      </c>
-      <c r="E59" s="183">
+        <v>75.75</v>
+      </c>
+      <c r="E59" s="182">
         <f>E13+E20+E25+E31+E37+E50+E57</f>
         <v>100</v>
       </c>
-      <c r="F59" s="184">
+      <c r="F59" s="183">
         <f>F13+F20+F25+F31+F37+F50+F57</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="202">
+        <v>71.25</v>
+      </c>
+      <c r="G59" s="201">
         <f>G13+G20+G25+G31+G37+G50+G57</f>
         <v>100</v>
       </c>
-      <c r="H59" s="189"/>
-      <c r="I59" s="187"/>
-    </row>
-    <row r="60" spans="1:11" ht="15">
-      <c r="A60" s="203" t="s">
-        <v>149</v>
+      <c r="H59" s="188"/>
+      <c r="I59" s="186"/>
+    </row>
+    <row r="60" spans="1:12" ht="15">
+      <c r="A60" s="202" t="s">
+        <v>150</v>
       </c>
       <c r="B60" s="329">
         <f>B59/C59</f>
@@ -7957,40 +8046,40 @@
       <c r="C60" s="329"/>
       <c r="D60" s="330">
         <f>D59/E59</f>
-        <v>0.74</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="E60" s="330"/>
       <c r="F60" s="331">
         <f>F59/G59</f>
-        <v>0</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G60" s="332"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="191"/>
-    </row>
-    <row r="61" spans="1:11" ht="15">
-      <c r="H61" s="190"/>
-      <c r="I61" s="190"/>
-    </row>
-    <row r="62" spans="1:11" ht="15">
-      <c r="H62" s="190"/>
-      <c r="I62" s="190"/>
-    </row>
-    <row r="63" spans="1:11" ht="15">
-      <c r="H63" s="190"/>
-      <c r="I63" s="190"/>
-    </row>
-    <row r="64" spans="1:11" ht="15">
-      <c r="H64" s="190"/>
-      <c r="I64" s="190"/>
+      <c r="H60" s="190"/>
+      <c r="I60" s="190"/>
+    </row>
+    <row r="61" spans="1:12" ht="15">
+      <c r="H61" s="189"/>
+      <c r="I61" s="189"/>
+    </row>
+    <row r="62" spans="1:12" ht="15">
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+    </row>
+    <row r="63" spans="1:12" ht="15">
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+    </row>
+    <row r="64" spans="1:12" ht="15">
+      <c r="H64" s="189"/>
+      <c r="I64" s="189"/>
     </row>
     <row r="65" spans="8:9" ht="15">
-      <c r="H65" s="190"/>
-      <c r="I65" s="190"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
     </row>
     <row r="66" spans="8:9" ht="15">
-      <c r="H66" s="190"/>
-      <c r="I66" s="190"/>
+      <c r="H66" s="189"/>
+      <c r="I66" s="189"/>
     </row>
     <row r="67" spans="8:9" ht="15"/>
     <row r="68" spans="8:9" ht="15"/>
@@ -8041,8 +8130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8063,12 +8152,12 @@
       <c r="F1" s="342"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="341" t="s">
@@ -8091,7 +8180,7 @@
       <c r="F5" s="343"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="206" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="344"/>
@@ -8101,312 +8190,312 @@
       <c r="F6" s="345"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="208" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="207" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="209" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="209" t="s">
+      <c r="C7" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="209" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="210" t="s">
+      <c r="E7" s="208" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="209" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="211" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="212">
+      <c r="A8" s="210" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="211">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C8" s="212">
-        <v>1</v>
-      </c>
-      <c r="D8" s="212">
+      <c r="C8" s="211">
+        <v>1</v>
+      </c>
+      <c r="D8" s="211">
         <v>14</v>
       </c>
-      <c r="E8" s="212">
+      <c r="E8" s="211">
         <f>B8*C8*D8</f>
         <v>12.950000000000001</v>
       </c>
-      <c r="F8" s="213" t="s">
-        <v>154</v>
+      <c r="F8" s="212" t="s">
+        <v>155</v>
       </c>
       <c r="G8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="211" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="212">
-        <v>1</v>
-      </c>
-      <c r="C9" s="212">
-        <v>1</v>
-      </c>
-      <c r="D9" s="212">
+      <c r="A9" s="210" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="211">
+        <v>1</v>
+      </c>
+      <c r="C9" s="211">
+        <v>1</v>
+      </c>
+      <c r="D9" s="211">
         <v>7</v>
       </c>
-      <c r="E9" s="212">
+      <c r="E9" s="211">
         <f t="shared" ref="E8:E19" si="0">B9*C9*D9</f>
         <v>7</v>
       </c>
-      <c r="F9" s="214"/>
+      <c r="F9" s="213"/>
       <c r="G9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="212">
+      <c r="A10" s="210" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="211">
         <v>0.9</v>
       </c>
-      <c r="C10" s="212">
+      <c r="C10" s="211">
         <v>0.75</v>
       </c>
-      <c r="D10" s="212">
+      <c r="D10" s="211">
         <v>12</v>
       </c>
-      <c r="E10" s="212">
+      <c r="E10" s="211">
         <f t="shared" si="0"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="F10" s="214" t="s">
-        <v>157</v>
+      <c r="F10" s="213" t="s">
+        <v>158</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="211" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="212">
-        <v>1</v>
-      </c>
-      <c r="C11" s="212">
-        <v>1</v>
-      </c>
-      <c r="D11" s="212">
+      <c r="A11" s="210" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="211">
+        <v>1</v>
+      </c>
+      <c r="C11" s="211">
+        <v>1</v>
+      </c>
+      <c r="D11" s="211">
         <v>10</v>
       </c>
-      <c r="E11" s="212">
+      <c r="E11" s="211">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F11" s="214" t="s">
-        <v>159</v>
+      <c r="F11" s="213" t="s">
+        <v>160</v>
       </c>
       <c r="G11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="135">
-      <c r="A12" s="211" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="212">
+      <c r="A12" s="210" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="211">
         <v>0.9</v>
       </c>
-      <c r="C12" s="212">
+      <c r="C12" s="211">
         <v>0.75</v>
       </c>
-      <c r="D12" s="212">
+      <c r="D12" s="211">
         <v>6</v>
       </c>
-      <c r="E12" s="212">
+      <c r="E12" s="211">
         <f t="shared" si="0"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="F12" s="213" t="s">
-        <v>161</v>
+      <c r="F12" s="212" t="s">
+        <v>162</v>
       </c>
       <c r="G12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="212">
+      <c r="A13" s="210" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="211">
         <v>0.7</v>
       </c>
-      <c r="C13" s="212">
-        <v>1</v>
-      </c>
-      <c r="D13" s="212">
+      <c r="C13" s="211">
+        <v>1</v>
+      </c>
+      <c r="D13" s="211">
         <v>7</v>
       </c>
-      <c r="E13" s="212">
+      <c r="E13" s="211">
         <f t="shared" si="0"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="F13" s="214" t="s">
-        <v>163</v>
+      <c r="F13" s="213" t="s">
+        <v>164</v>
       </c>
       <c r="G13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="211" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="212">
-        <v>1</v>
-      </c>
-      <c r="C14" s="212">
-        <v>1</v>
-      </c>
-      <c r="D14" s="212">
+      <c r="A14" s="210" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="211">
+        <v>1</v>
+      </c>
+      <c r="C14" s="211">
+        <v>1</v>
+      </c>
+      <c r="D14" s="211">
         <v>8</v>
       </c>
-      <c r="E14" s="212">
+      <c r="E14" s="211">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F14" s="213"/>
+      <c r="F14" s="212"/>
       <c r="G14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="211" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="212">
+      <c r="A15" s="210" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="211">
         <v>0.9</v>
       </c>
-      <c r="C15" s="212">
-        <v>1</v>
-      </c>
-      <c r="D15" s="212">
+      <c r="C15" s="211">
+        <v>1</v>
+      </c>
+      <c r="D15" s="211">
         <v>8</v>
       </c>
-      <c r="E15" s="212">
+      <c r="E15" s="211">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="F15" s="213" t="s">
-        <v>166</v>
+      <c r="F15" s="212" t="s">
+        <v>167</v>
       </c>
       <c r="G15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="165">
-      <c r="A16" s="211" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="212">
+      <c r="A16" s="210" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="211">
         <v>0.9</v>
       </c>
-      <c r="C16" s="212">
-        <v>1</v>
-      </c>
-      <c r="D16" s="212">
+      <c r="C16" s="211">
+        <v>1</v>
+      </c>
+      <c r="D16" s="211">
         <v>8</v>
       </c>
-      <c r="E16" s="212">
+      <c r="E16" s="211">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="F16" s="213" t="s">
-        <v>168</v>
+      <c r="F16" s="212" t="s">
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="211" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="212">
-        <v>1</v>
-      </c>
-      <c r="C17" s="212">
-        <v>1</v>
-      </c>
-      <c r="D17" s="212">
+      <c r="A17" s="210" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="211">
+        <v>1</v>
+      </c>
+      <c r="C17" s="211">
+        <v>1</v>
+      </c>
+      <c r="D17" s="211">
         <v>7</v>
       </c>
-      <c r="E17" s="212">
+      <c r="E17" s="211">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F17" s="214" t="s">
-        <v>170</v>
+      <c r="F17" s="213" t="s">
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="211" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="212">
-        <v>1</v>
-      </c>
-      <c r="C18" s="212">
-        <v>1</v>
-      </c>
-      <c r="D18" s="212">
+      <c r="A18" s="210" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="211">
+        <v>1</v>
+      </c>
+      <c r="C18" s="211">
+        <v>1</v>
+      </c>
+      <c r="D18" s="211">
         <v>5</v>
       </c>
-      <c r="E18" s="212">
+      <c r="E18" s="211">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F18" s="214" t="s">
-        <v>170</v>
+      <c r="F18" s="213" t="s">
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="211" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="212">
+      <c r="A19" s="210" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="211">
         <v>0.95</v>
       </c>
-      <c r="C19" s="212">
-        <v>1</v>
-      </c>
-      <c r="D19" s="212">
+      <c r="C19" s="211">
+        <v>1</v>
+      </c>
+      <c r="D19" s="211">
         <v>8</v>
       </c>
-      <c r="E19" s="212">
+      <c r="E19" s="211">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F19" s="214" t="s">
-        <v>173</v>
+      <c r="F19" s="213" t="s">
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="215" t="s">
-        <v>174</v>
+      <c r="A20" s="214" t="s">
+        <v>175</v>
       </c>
       <c r="B20" s="346"/>
       <c r="C20" s="346"/>
@@ -8414,25 +8503,25 @@
         <f>SUM(D8:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="265">
+      <c r="E20" s="264">
         <f>SUM(E8:E19)/D20 - E22*D22 - E21*D21</f>
         <v>0.89</v>
       </c>
-      <c r="F20" s="216"/>
+      <c r="F20" s="215"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="217" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="218">
+      <c r="A21" s="216" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="217">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="217" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="218">
+      <c r="A22" s="216" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="217">
         <v>0.2</v>
       </c>
     </row>
@@ -8447,7 +8536,7 @@
       <c r="F23" s="349"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="227" t="s">
+      <c r="A24" s="226" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="333"/>
@@ -8457,327 +8546,327 @@
       <c r="F24" s="335"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="227" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="219" t="s">
+      <c r="A25" s="226" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="219" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="219" t="s">
+      <c r="C25" s="218" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="219" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="228" t="s">
+      <c r="E25" s="218" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="227" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="227" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="240">
+      <c r="A26" s="226" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="239">
         <v>0.95</v>
       </c>
-      <c r="C26" s="240">
-        <v>1</v>
-      </c>
-      <c r="D26" s="219">
+      <c r="C26" s="239">
+        <v>1</v>
+      </c>
+      <c r="D26" s="218">
         <v>14</v>
       </c>
-      <c r="E26" s="219">
+      <c r="E26" s="218">
         <f>B26*C26*D26</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="F26" s="228"/>
-      <c r="G26" s="301" t="s">
+      <c r="F26" s="227"/>
+      <c r="G26" s="300" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="227" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="240">
-        <v>1</v>
-      </c>
-      <c r="C27" s="240">
-        <v>1</v>
-      </c>
-      <c r="D27" s="219">
+      <c r="A27" s="226" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="239">
+        <v>1</v>
+      </c>
+      <c r="C27" s="239">
+        <v>1</v>
+      </c>
+      <c r="D27" s="218">
         <v>15</v>
       </c>
-      <c r="E27" s="219">
+      <c r="E27" s="218">
         <f t="shared" ref="E27:E37" si="1">B27*C27*D27</f>
         <v>15</v>
       </c>
-      <c r="F27" s="228"/>
+      <c r="F27" s="227"/>
       <c r="G27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="227" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="240">
+      <c r="A28" s="226" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="239">
         <v>0.92</v>
       </c>
-      <c r="C28" s="240">
-        <v>1</v>
-      </c>
-      <c r="D28" s="219">
+      <c r="C28" s="239">
+        <v>1</v>
+      </c>
+      <c r="D28" s="218">
         <v>5</v>
       </c>
-      <c r="E28" s="219">
+      <c r="E28" s="218">
         <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="F28" s="228"/>
+      <c r="F28" s="227"/>
       <c r="G28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="227" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="240">
-        <v>1</v>
-      </c>
-      <c r="C29" s="240">
-        <v>1</v>
-      </c>
-      <c r="D29" s="219">
+      <c r="A29" s="226" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="239">
+        <v>1</v>
+      </c>
+      <c r="C29" s="239">
+        <v>1</v>
+      </c>
+      <c r="D29" s="218">
         <v>6</v>
       </c>
-      <c r="E29" s="219">
+      <c r="E29" s="218">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F29" s="228"/>
+      <c r="F29" s="227"/>
       <c r="G29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="227" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="240">
+      <c r="A30" s="226" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="239">
         <v>0.96</v>
       </c>
-      <c r="C30" s="240">
-        <v>1</v>
-      </c>
-      <c r="D30" s="219">
+      <c r="C30" s="239">
+        <v>1</v>
+      </c>
+      <c r="D30" s="218">
         <v>6</v>
       </c>
-      <c r="E30" s="219">
+      <c r="E30" s="218">
         <f t="shared" si="1"/>
         <v>5.76</v>
       </c>
-      <c r="F30" s="228"/>
+      <c r="F30" s="227"/>
       <c r="G30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="227" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="240">
+      <c r="A31" s="226" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="239">
         <v>0.9</v>
       </c>
-      <c r="C31" s="240">
-        <v>1</v>
-      </c>
-      <c r="D31" s="219">
+      <c r="C31" s="239">
+        <v>1</v>
+      </c>
+      <c r="D31" s="218">
         <v>10</v>
       </c>
-      <c r="E31" s="219">
+      <c r="E31" s="218">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F31" s="228"/>
+      <c r="F31" s="227"/>
       <c r="G31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="227" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="240">
-        <v>1</v>
-      </c>
-      <c r="C32" s="240">
-        <v>1</v>
-      </c>
-      <c r="D32" s="219">
+      <c r="A32" s="226" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="239">
+        <v>1</v>
+      </c>
+      <c r="C32" s="239">
+        <v>1</v>
+      </c>
+      <c r="D32" s="218">
         <v>6</v>
       </c>
-      <c r="E32" s="219">
+      <c r="E32" s="218">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F32" s="228"/>
+      <c r="F32" s="227"/>
       <c r="G32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="227" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="240">
-        <v>1</v>
-      </c>
-      <c r="C33" s="240">
-        <v>1</v>
-      </c>
-      <c r="D33" s="219">
+      <c r="A33" s="226" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="239">
+        <v>1</v>
+      </c>
+      <c r="C33" s="239">
+        <v>1</v>
+      </c>
+      <c r="D33" s="218">
         <v>6</v>
       </c>
-      <c r="E33" s="219">
+      <c r="E33" s="218">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F33" s="228"/>
+      <c r="F33" s="227"/>
       <c r="G33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="227" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="240">
+      <c r="A34" s="226" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="239">
         <v>0.95</v>
       </c>
-      <c r="C34" s="240">
-        <v>1</v>
-      </c>
-      <c r="D34" s="219">
+      <c r="C34" s="239">
+        <v>1</v>
+      </c>
+      <c r="D34" s="218">
         <v>8</v>
       </c>
-      <c r="E34" s="219">
+      <c r="E34" s="218">
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
-      <c r="F34" s="228"/>
+      <c r="F34" s="227"/>
       <c r="G34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="227" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="240">
+      <c r="A35" s="226" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="239">
         <v>0.92</v>
       </c>
-      <c r="C35" s="240">
-        <v>1</v>
-      </c>
-      <c r="D35" s="219">
+      <c r="C35" s="239">
+        <v>1</v>
+      </c>
+      <c r="D35" s="218">
         <v>8</v>
       </c>
-      <c r="E35" s="219">
+      <c r="E35" s="218">
         <f t="shared" si="1"/>
         <v>7.36</v>
       </c>
-      <c r="F35" s="228"/>
+      <c r="F35" s="227"/>
       <c r="G35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="227" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="240">
+      <c r="A36" s="226" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="239">
         <v>0.9</v>
       </c>
-      <c r="C36" s="240">
-        <v>1</v>
-      </c>
-      <c r="D36" s="219">
+      <c r="C36" s="239">
+        <v>1</v>
+      </c>
+      <c r="D36" s="218">
         <v>14</v>
       </c>
-      <c r="E36" s="219">
+      <c r="E36" s="218">
         <f t="shared" si="1"/>
         <v>12.6</v>
       </c>
-      <c r="F36" s="228"/>
+      <c r="F36" s="227"/>
       <c r="G36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="227" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="240">
+      <c r="A37" s="226" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="239">
         <v>0.85</v>
       </c>
-      <c r="C37" s="240">
-        <v>1</v>
-      </c>
-      <c r="D37" s="219">
+      <c r="C37" s="239">
+        <v>1</v>
+      </c>
+      <c r="D37" s="218">
         <v>2</v>
       </c>
-      <c r="E37" s="219">
+      <c r="E37" s="218">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="F37" s="228"/>
+      <c r="F37" s="227"/>
       <c r="G37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="229" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="230"/>
-      <c r="C38" s="249"/>
-      <c r="D38" s="249">
+      <c r="A38" s="228" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="229"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="248">
         <f>SUM(D26:D37)</f>
         <v>100</v>
       </c>
-      <c r="E38" s="231">
+      <c r="E38" s="230">
         <f>SUM(E26:E37)/D38 -E39*D39 -E40*D40-E41*D41</f>
         <v>0.94919999999999982</v>
       </c>
-      <c r="F38" s="232"/>
+      <c r="F38" s="231"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="220" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="251"/>
-      <c r="D39" s="250">
+      <c r="A39" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="250"/>
+      <c r="D39" s="249">
         <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="220" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="221">
+      <c r="A40" s="219" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="220">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="220" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="222">
+      <c r="A41" s="219" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="221">
         <v>0.05</v>
       </c>
     </row>
@@ -8792,7 +8881,7 @@
       <c r="F42" s="338"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="233" t="s">
+      <c r="A43" s="232" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="339"/>
@@ -8802,272 +8891,372 @@
       <c r="F43" s="340"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="234" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="223" t="s">
+      <c r="A44" s="233" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="223" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="223" t="s">
+      <c r="C44" s="222" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="223" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="235" t="s">
+      <c r="E44" s="222" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="234" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="236" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="224"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224">
+      <c r="A45" s="235" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="223">
+        <v>1</v>
+      </c>
+      <c r="C45" s="223">
+        <v>1</v>
+      </c>
+      <c r="D45" s="223">
         <v>8</v>
       </c>
-      <c r="E45" s="224">
+      <c r="E45" s="223">
         <f t="shared" ref="E45:E57" si="2">B45*C45*D45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="235"/>
+        <v>8</v>
+      </c>
+      <c r="F45" s="234"/>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="236" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="224"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="224">
+      <c r="A46" s="235" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="223">
+        <v>0.9</v>
+      </c>
+      <c r="C46" s="223">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="223">
         <v>6</v>
       </c>
-      <c r="E46" s="224">
+      <c r="E46" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="237"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="F46" s="236"/>
+      <c r="G46" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="236" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="224"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224">
+      <c r="A47" s="235" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="223">
+        <v>1</v>
+      </c>
+      <c r="C47" s="223">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="223">
         <v>6</v>
       </c>
-      <c r="E47" s="224">
+      <c r="E47" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="235"/>
+        <v>4.5</v>
+      </c>
+      <c r="F47" s="234"/>
+      <c r="G47" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="236" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="224"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224">
+      <c r="A48" s="235" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="223">
+        <v>1</v>
+      </c>
+      <c r="C48" s="223">
+        <v>1</v>
+      </c>
+      <c r="D48" s="223">
         <v>6</v>
       </c>
-      <c r="E48" s="224">
+      <c r="E48" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="237"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="236" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" s="224"/>
-      <c r="C49" s="224"/>
-      <c r="D49" s="224">
+        <v>6</v>
+      </c>
+      <c r="F48" s="236"/>
+      <c r="G48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="235" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="223">
+        <v>1</v>
+      </c>
+      <c r="C49" s="223">
+        <v>1</v>
+      </c>
+      <c r="D49" s="223">
         <v>10</v>
       </c>
-      <c r="E49" s="224">
+      <c r="E49" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="235"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="236" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="224"/>
-      <c r="C50" s="224"/>
-      <c r="D50" s="224">
         <v>10</v>
       </c>
-      <c r="E50" s="224">
+      <c r="F49" s="234"/>
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="235" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="223">
+        <v>1</v>
+      </c>
+      <c r="C50" s="223">
+        <v>1</v>
+      </c>
+      <c r="D50" s="223">
+        <v>10</v>
+      </c>
+      <c r="E50" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="235"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="236" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="224"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="224">
+        <v>10</v>
+      </c>
+      <c r="F50" s="234"/>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="235" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="223">
+        <v>1</v>
+      </c>
+      <c r="C51" s="223">
+        <v>1</v>
+      </c>
+      <c r="D51" s="223">
         <v>12</v>
       </c>
-      <c r="E51" s="224">
+      <c r="E51" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="235"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="236" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="242"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="224">
         <v>12</v>
       </c>
-      <c r="E52" s="224">
+      <c r="F51" s="234"/>
+      <c r="G51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="235" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="241">
+        <v>1</v>
+      </c>
+      <c r="C52" s="241">
+        <v>1</v>
+      </c>
+      <c r="D52" s="223">
+        <v>12</v>
+      </c>
+      <c r="E52" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="235"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="234"/>
+      <c r="G52" t="s">
         <v>198</v>
       </c>
-      <c r="B53" s="244"/>
-      <c r="C53" s="244"/>
-      <c r="D53" s="241">
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="245" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="243">
+        <f>14/15</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="C53" s="243">
+        <v>1</v>
+      </c>
+      <c r="D53" s="240">
         <v>6</v>
       </c>
-      <c r="E53" s="224">
+      <c r="E53" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="243"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="246" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="244"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="241">
+        <v>5.6</v>
+      </c>
+      <c r="F53" s="242"/>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="245" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="243">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C54" s="243">
+        <v>1</v>
+      </c>
+      <c r="D54" s="240">
         <v>5</v>
       </c>
-      <c r="E54" s="224">
+      <c r="E54" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="243"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="246" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="244"/>
-      <c r="C55" s="244"/>
-      <c r="D55" s="241">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F54" s="242"/>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="245" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="243">
+        <v>1</v>
+      </c>
+      <c r="C55" s="243">
+        <v>1</v>
+      </c>
+      <c r="D55" s="240">
         <v>5</v>
       </c>
-      <c r="E55" s="224">
+      <c r="E55" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="243"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="246" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="244"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="241">
+        <v>5</v>
+      </c>
+      <c r="F55" s="242"/>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="245" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="243">
+        <v>1</v>
+      </c>
+      <c r="C56" s="243">
+        <v>1</v>
+      </c>
+      <c r="D56" s="240">
         <v>4</v>
       </c>
-      <c r="E56" s="224">
+      <c r="E56" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="243"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="246" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="244"/>
-      <c r="C57" s="244"/>
-      <c r="D57" s="241">
+        <v>4</v>
+      </c>
+      <c r="F56" s="242"/>
+      <c r="G56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="245" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="243">
+        <v>1</v>
+      </c>
+      <c r="C57" s="243">
+        <v>1</v>
+      </c>
+      <c r="D57" s="240">
         <v>8</v>
       </c>
-      <c r="E57" s="224">
+      <c r="E57" s="223">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="243"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="246" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="244"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="241">
+        <v>8</v>
+      </c>
+      <c r="F57" s="242"/>
+      <c r="G57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="245" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="243">
+        <v>1</v>
+      </c>
+      <c r="C58" s="243">
+        <v>1</v>
+      </c>
+      <c r="D58" s="240">
         <v>2</v>
       </c>
-      <c r="E58" s="224">
+      <c r="E58" s="223">
         <f t="shared" ref="E52:E58" si="3">B58*C58*D58</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="243"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="247" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="245"/>
-      <c r="C59" s="245"/>
-      <c r="D59" s="248">
+        <v>2</v>
+      </c>
+      <c r="F58" s="242"/>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="246" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="244"/>
+      <c r="C59" s="244"/>
+      <c r="D59" s="247">
         <f>SUM(D45:D58)</f>
         <v>100</v>
       </c>
-      <c r="E59" s="238">
+      <c r="E59" s="237">
         <f>SUM(E45:E58)/D59 - D60*E60  - D61*E61 - D62*E62</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="239"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="221">
+        <v>0.95316666666666661</v>
+      </c>
+      <c r="F59" s="238"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="224" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="220">
         <v>0.15</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="225" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="221">
+    <row r="61" spans="1:7">
+      <c r="A61" s="224" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="220">
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="226" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="222">
+    <row r="62" spans="1:7">
+      <c r="A62" s="225" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="221">
         <v>0.05</v>
       </c>
     </row>
@@ -9153,7 +9342,7 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -9179,7 +9368,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -9192,7 +9381,7 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -9205,7 +9394,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -9218,7 +9407,7 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -9231,7 +9420,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -9244,7 +9433,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -9257,7 +9446,7 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -9270,7 +9459,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -9283,7 +9472,7 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -9296,7 +9485,7 @@
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -9309,7 +9498,7 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -9322,7 +9511,7 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -9335,7 +9524,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -9348,7 +9537,7 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -9361,7 +9550,7 @@
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -9374,7 +9563,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -9387,7 +9576,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -9400,7 +9589,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -9413,7 +9602,7 @@
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="65" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -9426,7 +9615,7 @@
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="65" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -9439,7 +9628,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -9452,7 +9641,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -9802,7 +9991,7 @@
     <row r="49" spans="1:6" ht="15"/>
     <row r="50" spans="1:6" ht="15">
       <c r="A50" s="92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -9872,15 +10061,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -10012,20 +10192,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>